--- a/BackTest/2019-10-06 BackTest ZIL.xlsx
+++ b/BackTest/2019-10-06 BackTest ZIL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.84</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>40.33149171270723</v>
+      </c>
       <c r="L12" t="n">
         <v>10.155</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.039999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>46.26865671641794</v>
+      </c>
       <c r="L13" t="n">
         <v>10.248</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.239999999999998</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.03167420814486</v>
+      </c>
       <c r="L14" t="n">
         <v>10.321</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.239999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.45098039215692</v>
+      </c>
       <c r="L15" t="n">
         <v>10.394</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.909999999999998</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-2.62172284644196</v>
+      </c>
       <c r="L16" t="n">
         <v>10.383</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.179999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>3.52112676056337</v>
+      </c>
       <c r="L17" t="n">
         <v>10.403</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.279999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-7.874015748031546</v>
+      </c>
       <c r="L18" t="n">
         <v>10.423</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.479999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-18.93939393939396</v>
+      </c>
       <c r="L19" t="n">
         <v>10.383</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.579999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-40.1785714285715</v>
+      </c>
       <c r="L20" t="n">
         <v>10.343</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.679999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.17391304347831</v>
+      </c>
       <c r="L21" t="n">
         <v>10.243</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.709999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-43.71257485029941</v>
+      </c>
       <c r="L22" t="n">
         <v>10.19</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.739999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>6.199460916442071</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L23" t="n">
         <v>10.12</v>
@@ -1466,7 +1488,7 @@
         <v>3.769999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>5.347593582887739</v>
+        <v>-34.64052287581705</v>
       </c>
       <c r="L24" t="n">
         <v>10.067</v>
@@ -1515,7 +1537,7 @@
         <v>3.769999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>5.347593582887739</v>
+        <v>16.27906976744201</v>
       </c>
       <c r="L25" t="n">
         <v>10.014</v>
@@ -1564,7 +1586,7 @@
         <v>3.769999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8403361344538149</v>
+        <v>-22.03389830508472</v>
       </c>
       <c r="L26" t="n">
         <v>10.028</v>
@@ -1613,7 +1635,7 @@
         <v>3.899999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>5.464480874316931</v>
+        <v>-16.12903225806457</v>
       </c>
       <c r="L27" t="n">
         <v>10.028</v>
@@ -1662,7 +1684,7 @@
         <v>4.159999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>-4.188481675392682</v>
+        <v>-23.52941176470603</v>
       </c>
       <c r="L28" t="n">
         <v>9.991999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>4.209999999999994</v>
       </c>
       <c r="K29" t="n">
-        <v>-17.57925072046116</v>
+        <v>-49.2063492063495</v>
       </c>
       <c r="L29" t="n">
         <v>9.970999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>4.359999999999992</v>
       </c>
       <c r="K30" t="n">
-        <v>-24.43181818181822</v>
+        <v>-52.94117647058845</v>
       </c>
       <c r="L30" t="n">
         <v>9.924999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>4.509999999999991</v>
       </c>
       <c r="K31" t="n">
-        <v>-38.17034700315471</v>
+        <v>-22.50000000000032</v>
       </c>
       <c r="L31" t="n">
         <v>9.904</v>
@@ -1860,7 +1882,7 @@
         <v>4.509999999999991</v>
       </c>
       <c r="K32" t="n">
-        <v>-26.59176029962559</v>
+        <v>-27.27272727272753</v>
       </c>
       <c r="L32" t="n">
         <v>9.885999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>4.64999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-40.22988505747137</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L33" t="n">
         <v>9.850999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>4.999999999999989</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.11594202898557</v>
+        <v>2.43902439024386</v>
       </c>
       <c r="L34" t="n">
         <v>9.853999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>5.39999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.164556962025314</v>
+        <v>26.38036809815957</v>
       </c>
       <c r="L35" t="n">
         <v>9.897</v>
@@ -2064,7 +2086,7 @@
         <v>5.999999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86407766990303</v>
+        <v>42.85714285714295</v>
       </c>
       <c r="L36" t="n">
         <v>10</v>
@@ -2115,7 +2137,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>23.17880794701998</v>
+        <v>47.05882352941191</v>
       </c>
       <c r="L37" t="n">
         <v>10.07</v>
@@ -2166,7 +2188,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K38" t="n">
-        <v>2.923976608187183</v>
+        <v>20.48192771084348</v>
       </c>
       <c r="L38" t="n">
         <v>10.116</v>
@@ -2217,7 +2239,7 @@
         <v>7.099999999999987</v>
       </c>
       <c r="K39" t="n">
-        <v>19.33701657458567</v>
+        <v>38.68613138686134</v>
       </c>
       <c r="L39" t="n">
         <v>10.207</v>
@@ -2268,7 +2290,7 @@
         <v>7.199999999999987</v>
       </c>
       <c r="K40" t="n">
-        <v>13.81215469613263</v>
+        <v>30.11152416356884</v>
       </c>
       <c r="L40" t="n">
         <v>10.303</v>
@@ -2319,7 +2341,7 @@
         <v>7.499999999999988</v>
       </c>
       <c r="K41" t="n">
-        <v>23.56020942408383</v>
+        <v>37.12374581939807</v>
       </c>
       <c r="L41" t="n">
         <v>10.414</v>
@@ -2370,7 +2392,7 @@
         <v>7.799999999999986</v>
       </c>
       <c r="K42" t="n">
-        <v>30.07334963325187</v>
+        <v>49.20634920634922</v>
       </c>
       <c r="L42" t="n">
         <v>10.555</v>
@@ -2421,7 +2443,7 @@
         <v>7.999999999999986</v>
       </c>
       <c r="K43" t="n">
-        <v>23.47417840375592</v>
+        <v>33.33333333333337</v>
       </c>
       <c r="L43" t="n">
         <v>10.69</v>
@@ -2472,7 +2494,7 @@
         <v>8.299999999999986</v>
       </c>
       <c r="K44" t="n">
-        <v>16.11479028697572</v>
+        <v>10.34482758620687</v>
       </c>
       <c r="L44" t="n">
         <v>10.76</v>
@@ -2523,7 +2545,7 @@
         <v>8.399999999999986</v>
       </c>
       <c r="K45" t="n">
-        <v>13.60691144708424</v>
+        <v>-16.6666666666667</v>
       </c>
       <c r="L45" t="n">
         <v>10.78</v>
@@ -2574,7 +2596,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K46" t="n">
-        <v>15.43340380549683</v>
+        <v>-4.347826086956589</v>
       </c>
       <c r="L46" t="n">
         <v>10.75</v>
@@ -2625,7 +2647,7 @@
         <v>8.699999999999987</v>
       </c>
       <c r="K47" t="n">
-        <v>16.6666666666667</v>
+        <v>30.00000000000001</v>
       </c>
       <c r="L47" t="n">
         <v>10.76</v>
@@ -2676,7 +2698,7 @@
         <v>8.699999999999987</v>
       </c>
       <c r="K48" t="n">
-        <v>23.34801762114542</v>
+        <v>12.50000000000007</v>
       </c>
       <c r="L48" t="n">
         <v>10.82</v>
@@ -2727,7 +2749,7 @@
         <v>8.999999999999988</v>
       </c>
       <c r="K49" t="n">
-        <v>16.91022964509398</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>10.81</v>
@@ -2778,7 +2800,7 @@
         <v>8.999999999999988</v>
       </c>
       <c r="K50" t="n">
-        <v>20.6896551724138</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L50" t="n">
         <v>10.81</v>
@@ -2829,7 +2851,7 @@
         <v>8.999999999999988</v>
       </c>
       <c r="K51" t="n">
-        <v>18.04008908685971</v>
+        <v>-49.99999999999993</v>
       </c>
       <c r="L51" t="n">
         <v>10.78</v>
@@ -2880,7 +2902,7 @@
         <v>9.099999999999987</v>
       </c>
       <c r="K52" t="n">
-        <v>19.8257080610022</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L52" t="n">
         <v>10.73</v>
@@ -2931,7 +2953,7 @@
         <v>9.199999999999987</v>
       </c>
       <c r="K53" t="n">
-        <v>20.87912087912088</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L53" t="n">
         <v>10.69</v>
@@ -2982,7 +3004,7 @@
         <v>9.299999999999986</v>
       </c>
       <c r="K54" t="n">
-        <v>16.27906976744186</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L54" t="n">
         <v>10.69</v>
@@ -3033,7 +3055,7 @@
         <v>9.299999999999986</v>
       </c>
       <c r="K55" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>10.7</v>
@@ -3084,7 +3106,7 @@
         <v>9.399999999999986</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.76470588235296</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L56" t="n">
         <v>10.69</v>
@@ -3135,7 +3157,7 @@
         <v>9.499999999999986</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.030303030303076</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L57" t="n">
         <v>10.67</v>
@@ -3186,7 +3208,7 @@
         <v>9.599999999999985</v>
       </c>
       <c r="K58" t="n">
-        <v>10.34482758620687</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>10.64</v>
@@ -3237,7 +3259,7 @@
         <v>9.799999999999985</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.11111111111108</v>
+        <v>-25</v>
       </c>
       <c r="L59" t="n">
         <v>10.62</v>
@@ -3339,7 +3361,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>-15.38461538461542</v>
+        <v>-20</v>
       </c>
       <c r="L61" t="n">
         <v>10.61</v>
@@ -3390,7 +3412,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-25.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>10.6</v>
@@ -3441,7 +3463,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>-13.04347826086961</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>10.61</v>
@@ -3492,7 +3514,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>-9.090909090909076</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>10.59</v>
@@ -3543,7 +3565,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909076</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>10.56</v>
@@ -3594,7 +3616,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909076</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>10.55</v>
@@ -3645,7 +3667,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>10.54</v>
@@ -3696,7 +3718,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571436</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>10.54</v>
@@ -3747,7 +3769,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-18.18181818181825</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L69" t="n">
         <v>10.52</v>
@@ -3798,7 +3820,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>-13.04347826086954</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L70" t="n">
         <v>10.49</v>
@@ -3849,7 +3871,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-13.04347826086954</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L71" t="n">
         <v>10.47</v>
@@ -3900,7 +3922,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.04347826086954</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L72" t="n">
         <v>10.45</v>
@@ -3951,7 +3973,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.090909090909076</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L73" t="n">
         <v>10.42</v>
@@ -4002,7 +4024,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909076</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L74" t="n">
         <v>10.42</v>
@@ -4053,7 +4075,7 @@
         <v>11.59999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>-13.04347826086954</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L75" t="n">
         <v>10.42</v>
@@ -4104,7 +4126,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.04347826086954</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L76" t="n">
         <v>10.4</v>
@@ -4155,7 +4177,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>-18.18181818181815</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L77" t="n">
         <v>10.37</v>
@@ -4206,7 +4228,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>-18.18181818181822</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>10.33</v>
@@ -4257,7 +4279,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571433</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L79" t="n">
         <v>10.32</v>
@@ -4308,7 +4330,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.28571428571424</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>10.32</v>
@@ -4359,7 +4381,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.999999999999964</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L81" t="n">
         <v>10.32</v>
@@ -4410,7 +4432,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>-15.78947368421047</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L82" t="n">
         <v>10.31</v>
@@ -4461,7 +4483,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-22.22222222222214</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L83" t="n">
         <v>10.3</v>
@@ -4512,7 +4534,7 @@
         <v>12.19999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-17.64705882352942</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>10.27</v>
@@ -4563,7 +4585,7 @@
         <v>12.39999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L85" t="n">
         <v>10.27</v>
@@ -4614,7 +4636,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>10.27</v>
@@ -4665,7 +4687,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.263157894736812</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>10.29</v>
@@ -4716,7 +4738,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571421</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L88" t="n">
         <v>10.3</v>
@@ -4767,7 +4789,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111116</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L89" t="n">
         <v>10.33</v>
@@ -4818,7 +4840,7 @@
         <v>12.99999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>5.882352941176446</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L90" t="n">
         <v>10.34</v>
@@ -4869,7 +4891,7 @@
         <v>13.09999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111107</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L91" t="n">
         <v>10.36</v>
@@ -4920,7 +4942,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111107</v>
+        <v>27.27272727272718</v>
       </c>
       <c r="L92" t="n">
         <v>10.39</v>
@@ -4971,7 +4993,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>5.263157894736822</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L93" t="n">
         <v>10.41</v>
@@ -5022,7 +5044,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.263157894736822</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>10.43</v>
@@ -5073,7 +5095,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L95" t="n">
         <v>10.43</v>
@@ -5124,7 +5146,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>10.45</v>
@@ -5175,7 +5197,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>10.45</v>
@@ -5226,7 +5248,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>17.64705882352946</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>10.47</v>
@@ -5277,7 +5299,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>25.00000000000003</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>10.48</v>
@@ -5328,7 +5350,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>10.49</v>
@@ -5379,7 +5401,7 @@
         <v>13.69999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L101" t="n">
         <v>10.47</v>
@@ -5430,7 +5452,7 @@
         <v>13.79999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>5.882352941176458</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>10.45</v>
@@ -5481,7 +5503,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>10.43</v>
@@ -5532,7 +5554,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L104" t="n">
         <v>10.41</v>
@@ -5583,7 +5605,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>-12.5000000000001</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L105" t="n">
         <v>10.39</v>
@@ -5634,7 +5656,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>5.882352941176458</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L106" t="n">
         <v>10.38</v>
@@ -5736,7 +5758,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>10.38</v>
@@ -5787,7 +5809,7 @@
         <v>14.49999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.666666666666651</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L109" t="n">
         <v>10.36</v>
@@ -5838,7 +5860,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-17.64705882352946</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L110" t="n">
         <v>10.32</v>
@@ -5889,7 +5911,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-25.00000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>10.3</v>
@@ -5940,7 +5962,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L112" t="n">
         <v>10.27</v>
@@ -5991,7 +6013,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>-12.49999999999994</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L113" t="n">
         <v>10.27</v>
@@ -6042,7 +6064,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>-17.64705882352942</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L114" t="n">
         <v>10.25999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.263157894736812</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L115" t="n">
         <v>10.26999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>-19.99999999999996</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L116" t="n">
         <v>10.23999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>-19.99999999999996</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L117" t="n">
         <v>10.19999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="L118" t="n">
         <v>10.16999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L119" t="n">
         <v>10.15999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L120" t="n">
         <v>10.16999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>-10.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>10.16999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>15.79999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-10.00000000000003</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L122" t="n">
         <v>10.18</v>
@@ -6501,7 +6523,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L123" t="n">
         <v>10.18</v>
@@ -6552,7 +6574,7 @@
         <v>15.99999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L124" t="n">
         <v>10.19</v>
@@ -6603,7 +6625,7 @@
         <v>16.09999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>4.76190476190481</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>10.19</v>
@@ -6654,7 +6676,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="L126" t="n">
         <v>10.22</v>
@@ -6705,7 +6727,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L127" t="n">
         <v>10.26</v>
@@ -6756,7 +6778,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.761904761904725</v>
+        <v>25</v>
       </c>
       <c r="L128" t="n">
         <v>10.28</v>
@@ -6807,7 +6829,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>5.263157894736798</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>10.3</v>
@@ -6858,7 +6880,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>22.22222222222213</v>
+        <v>49.99999999999967</v>
       </c>
       <c r="L130" t="n">
         <v>10.33</v>
@@ -6909,7 +6931,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>15.78947368421047</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L131" t="n">
         <v>10.36</v>
@@ -6960,7 +6982,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>15.78947368421047</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L132" t="n">
         <v>10.38</v>
@@ -7011,7 +7033,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>5.882352941176415</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L133" t="n">
         <v>10.39</v>
@@ -7062,7 +7084,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>19.99999999999993</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L134" t="n">
         <v>10.41</v>
@@ -7113,7 +7135,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>7.692307692307619</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>10.42</v>
@@ -7164,7 +7186,7 @@
         <v>16.8</v>
       </c>
       <c r="K136" t="n">
-        <v>7.692307692307608</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L136" t="n">
         <v>10.4</v>
@@ -7215,7 +7237,7 @@
         <v>16.8</v>
       </c>
       <c r="K137" t="n">
-        <v>7.692307692307608</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L137" t="n">
         <v>10.37</v>
@@ -7266,7 +7288,7 @@
         <v>16.8</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L138" t="n">
         <v>10.35</v>
@@ -7317,7 +7339,7 @@
         <v>16.9</v>
       </c>
       <c r="K139" t="n">
-        <v>7.692307692307734</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L139" t="n">
         <v>10.34</v>
@@ -7368,7 +7390,7 @@
         <v>16.9</v>
       </c>
       <c r="K140" t="n">
-        <v>7.692307692307734</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L140" t="n">
         <v>10.32</v>
@@ -7419,7 +7441,7 @@
         <v>17</v>
       </c>
       <c r="K141" t="n">
-        <v>7.692307692307587</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L141" t="n">
         <v>10.3</v>
@@ -7470,7 +7492,7 @@
         <v>17.1</v>
       </c>
       <c r="K142" t="n">
-        <v>7.692307692307714</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L142" t="n">
         <v>10.29</v>
@@ -7521,7 +7543,7 @@
         <v>17.2</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.692307692307714</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L143" t="n">
         <v>10.27</v>
@@ -7572,7 +7594,7 @@
         <v>17.4</v>
       </c>
       <c r="K144" t="n">
-        <v>-14.28571428571411</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L144" t="n">
         <v>10.23</v>
@@ -7623,7 +7645,7 @@
         <v>17.5</v>
       </c>
       <c r="K145" t="n">
-        <v>-28.57142857142841</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L145" t="n">
         <v>10.18</v>
@@ -7674,7 +7696,7 @@
         <v>17.7</v>
       </c>
       <c r="K146" t="n">
-        <v>-19.9999999999999</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L146" t="n">
         <v>10.17</v>
@@ -7725,7 +7747,7 @@
         <v>17.85</v>
       </c>
       <c r="K147" t="n">
-        <v>-35.48387096774172</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L147" t="n">
         <v>10.145</v>
@@ -7776,7 +7798,7 @@
         <v>18</v>
       </c>
       <c r="K148" t="n">
-        <v>-18.74999999999994</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L148" t="n">
         <v>10.135</v>
@@ -7827,7 +7849,7 @@
         <v>18.1</v>
       </c>
       <c r="K149" t="n">
-        <v>-23.52941176470577</v>
+        <v>-25</v>
       </c>
       <c r="L149" t="n">
         <v>10.105</v>
@@ -7878,7 +7900,7 @@
         <v>18.2</v>
       </c>
       <c r="K150" t="n">
-        <v>-23.52941176470577</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L150" t="n">
         <v>10.085</v>
@@ -7929,7 +7951,7 @@
         <v>18.2</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.74999999999994</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L151" t="n">
         <v>10.075</v>
@@ -7980,7 +8002,7 @@
         <v>18.2</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.74999999999994</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L152" t="n">
         <v>10.055</v>
@@ -8031,7 +8053,7 @@
         <v>18.4</v>
       </c>
       <c r="K153" t="n">
-        <v>-27.77777777777766</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L153" t="n">
         <v>10.025</v>
@@ -8082,7 +8104,7 @@
         <v>18.4</v>
       </c>
       <c r="K154" t="n">
-        <v>-27.77777777777766</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>10.015</v>
@@ -8133,7 +8155,7 @@
         <v>18.6</v>
       </c>
       <c r="K155" t="n">
-        <v>-14.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>10.03499999999999</v>
@@ -8184,7 +8206,7 @@
         <v>18.7</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L156" t="n">
         <v>10.045</v>
@@ -8235,7 +8257,7 @@
         <v>18.8</v>
       </c>
       <c r="K157" t="n">
-        <v>-4.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>10.06</v>
@@ -8286,7 +8308,7 @@
         <v>18.8</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.999999999999964</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L158" t="n">
         <v>10.06</v>
@@ -8337,7 +8359,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-5.000000000000053</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L159" t="n">
         <v>10.07999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>-5.000000000000053</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L160" t="n">
         <v>10.09</v>
@@ -8439,7 +8461,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>10.09</v>
@@ -8490,7 +8512,7 @@
         <v>19.11000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.42288557213929</v>
+        <v>12.67605633802807</v>
       </c>
       <c r="L162" t="n">
         <v>10.079</v>
@@ -8541,7 +8563,7 @@
         <v>19.13000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>-11.91709844559577</v>
+        <v>9.589041095890398</v>
       </c>
       <c r="L163" t="n">
         <v>10.08599999999999</v>
@@ -8592,7 +8614,7 @@
         <v>19.18000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>-4.494382022471902</v>
+        <v>-31.03448275862035</v>
       </c>
       <c r="L164" t="n">
         <v>10.088</v>
@@ -8643,7 +8665,7 @@
         <v>19.19</v>
       </c>
       <c r="K165" t="n">
-        <v>1.77514792899404</v>
+        <v>-55.10204081632622</v>
       </c>
       <c r="L165" t="n">
         <v>10.07099999999999</v>
@@ -8694,7 +8716,7 @@
         <v>19.19</v>
       </c>
       <c r="K166" t="n">
-        <v>-11.40939597315432</v>
+        <v>-43.58974358974351</v>
       </c>
       <c r="L166" t="n">
         <v>10.044</v>
@@ -8745,7 +8767,7 @@
         <v>19.2</v>
       </c>
       <c r="K167" t="n">
-        <v>-2.222222222222172</v>
+        <v>-45.00000000000009</v>
       </c>
       <c r="L167" t="n">
         <v>10.026</v>
@@ -8796,7 +8818,7 @@
         <v>19.21</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.04958677685949</v>
+        <v>-87.09677419354961</v>
       </c>
       <c r="L168" t="n">
         <v>10.009</v>
@@ -8847,7 +8869,7 @@
         <v>19.27</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.8547008547008352</v>
+        <v>-56.7567567567569</v>
       </c>
       <c r="L169" t="n">
         <v>9.987999999999996</v>
@@ -8898,7 +8920,7 @@
         <v>19.28</v>
       </c>
       <c r="K170" t="n">
-        <v>-11.11111111111106</v>
+        <v>-42.85714285714349</v>
       </c>
       <c r="L170" t="n">
         <v>9.965999999999998</v>
@@ -8949,7 +8971,7 @@
         <v>19.33</v>
       </c>
       <c r="K171" t="n">
-        <v>-15.04424778761063</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L171" t="n">
         <v>9.948999999999998</v>
@@ -9000,7 +9022,7 @@
         <v>19.33</v>
       </c>
       <c r="K172" t="n">
-        <v>-15.04424778761063</v>
+        <v>-20.00000000000089</v>
       </c>
       <c r="L172" t="n">
         <v>9.943</v>
@@ -9051,7 +9073,7 @@
         <v>19.33</v>
       </c>
       <c r="K173" t="n">
-        <v>3.225806451612835</v>
+        <v>6.666666666666746</v>
       </c>
       <c r="L173" t="n">
         <v>9.938999999999998</v>
@@ -9102,7 +9124,7 @@
         <v>19.33</v>
       </c>
       <c r="K174" t="n">
-        <v>3.225806451612835</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>9.94</v>
@@ -9153,7 +9175,7 @@
         <v>19.35</v>
       </c>
       <c r="K175" t="n">
-        <v>-25.33333333333327</v>
+        <v>-12.5</v>
       </c>
       <c r="L175" t="n">
         <v>9.937999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>19.4</v>
       </c>
       <c r="K176" t="n">
-        <v>-48.5714285714286</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L176" t="n">
         <v>9.931000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>19.41</v>
       </c>
       <c r="K177" t="n">
-        <v>-40.98360655737709</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L177" t="n">
         <v>9.923999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>19.42</v>
       </c>
       <c r="K178" t="n">
-        <v>-41.93548387096789</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L178" t="n">
         <v>9.915000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>19.49</v>
       </c>
       <c r="K179" t="n">
-        <v>-72.88135593220379</v>
+        <v>-100</v>
       </c>
       <c r="L179" t="n">
         <v>9.893000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>19.5</v>
       </c>
       <c r="K180" t="n">
-        <v>-73.33333333333395</v>
+        <v>-100.000000000001</v>
       </c>
       <c r="L180" t="n">
         <v>9.871</v>
@@ -9459,7 +9481,7 @@
         <v>19.6</v>
       </c>
       <c r="K181" t="n">
-        <v>-73.33333333333395</v>
+        <v>-100</v>
       </c>
       <c r="L181" t="n">
         <v>9.843999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>19.71</v>
       </c>
       <c r="K182" t="n">
-        <v>-73.33333333333395</v>
+        <v>-100</v>
       </c>
       <c r="L182" t="n">
         <v>9.806000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>19.76</v>
       </c>
       <c r="K183" t="n">
-        <v>-74.60317460317525</v>
+        <v>-100</v>
       </c>
       <c r="L183" t="n">
         <v>9.763</v>
@@ -9612,7 +9634,7 @@
         <v>19.76</v>
       </c>
       <c r="K184" t="n">
-        <v>-72.41379310344892</v>
+        <v>-100</v>
       </c>
       <c r="L184" t="n">
         <v>9.719999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>19.82</v>
       </c>
       <c r="K185" t="n">
-        <v>-77.77777777777838</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="L185" t="n">
         <v>9.672999999999998</v>
@@ -9714,7 +9736,7 @@
         <v>19.82</v>
       </c>
       <c r="K186" t="n">
-        <v>-77.77777777777838</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L186" t="n">
         <v>9.630999999999998</v>
@@ -9765,7 +9787,7 @@
         <v>19.84</v>
       </c>
       <c r="K187" t="n">
-        <v>-71.87499999999979</v>
+        <v>-90.47619047618987</v>
       </c>
       <c r="L187" t="n">
         <v>9.591999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>19.95</v>
       </c>
       <c r="K188" t="n">
-        <v>-48.64864864864844</v>
+        <v>-43.47826086956498</v>
       </c>
       <c r="L188" t="n">
         <v>9.564999999999998</v>
@@ -9867,7 +9889,7 @@
         <v>20.16</v>
       </c>
       <c r="K189" t="n">
-        <v>-23.59550561797761</v>
+        <v>3.030303030302949</v>
       </c>
       <c r="L189" t="n">
         <v>9.565999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>20.32</v>
       </c>
       <c r="K190" t="n">
-        <v>-34.61538461538464</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L190" t="n">
         <v>9.551999999999998</v>
@@ -9969,7 +9991,7 @@
         <v>20.33000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-31.99999999999992</v>
+        <v>9.677419354838431</v>
       </c>
       <c r="L191" t="n">
         <v>9.546999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>20.48</v>
       </c>
       <c r="K192" t="n">
-        <v>-14.78260869565214</v>
+        <v>36.11111111111096</v>
       </c>
       <c r="L192" t="n">
         <v>9.568</v>
@@ -10071,7 +10093,7 @@
         <v>20.48</v>
       </c>
       <c r="K193" t="n">
-        <v>-14.78260869565214</v>
+        <v>36.11111111111096</v>
       </c>
       <c r="L193" t="n">
         <v>9.593999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>20.48</v>
       </c>
       <c r="K194" t="n">
-        <v>-14.78260869565214</v>
+        <v>48.48484848484826</v>
       </c>
       <c r="L194" t="n">
         <v>9.620000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>20.48</v>
       </c>
       <c r="K195" t="n">
-        <v>-13.27433628318584</v>
+        <v>48.48484848484826</v>
       </c>
       <c r="L195" t="n">
         <v>9.652000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>20.5</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.27272727272727</v>
+        <v>48.48484848484825</v>
       </c>
       <c r="L196" t="n">
         <v>9.686000000000002</v>
@@ -10275,7 +10297,7 @@
         <v>20.5</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.42201834862388</v>
+        <v>38.18181818181797</v>
       </c>
       <c r="L197" t="n">
         <v>9.718</v>
@@ -10326,7 +10348,7 @@
         <v>20.71</v>
       </c>
       <c r="K198" t="n">
-        <v>-20.93023255813952</v>
+        <v>-38.18181818181821</v>
       </c>
       <c r="L198" t="n">
         <v>9.718</v>
@@ -10377,7 +10399,7 @@
         <v>20.92</v>
       </c>
       <c r="K199" t="n">
-        <v>0.6993006993006845</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L199" t="n">
         <v>9.718</v>
@@ -10428,7 +10450,7 @@
         <v>20.98</v>
       </c>
       <c r="K200" t="n">
-        <v>5.405405405405396</v>
+        <v>35.38461538461553</v>
       </c>
       <c r="L200" t="n">
         <v>9.74</v>
@@ -10479,7 +10501,7 @@
         <v>20.98</v>
       </c>
       <c r="K201" t="n">
-        <v>13.04347826086952</v>
+        <v>16.00000000000001</v>
       </c>
       <c r="L201" t="n">
         <v>9.763000000000002</v>
@@ -10530,7 +10552,7 @@
         <v>21.05</v>
       </c>
       <c r="K202" t="n">
-        <v>16.41791044776107</v>
+        <v>1.754385964912242</v>
       </c>
       <c r="L202" t="n">
         <v>9.763999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>21.23</v>
       </c>
       <c r="K203" t="n">
-        <v>6.122448979591817</v>
+        <v>-22.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>9.747</v>
@@ -10632,7 +10654,7 @@
         <v>21.41</v>
       </c>
       <c r="K204" t="n">
-        <v>16.36363636363632</v>
+        <v>1.075268817204278</v>
       </c>
       <c r="L204" t="n">
         <v>9.747999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>21.44</v>
       </c>
       <c r="K205" t="n">
-        <v>18.51851851851851</v>
+        <v>-4.255319148936073</v>
       </c>
       <c r="L205" t="n">
         <v>9.745999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>21.48</v>
       </c>
       <c r="K206" t="n">
-        <v>20.48192771084332</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>9.745999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>21.53</v>
       </c>
       <c r="K207" t="n">
-        <v>15.97633136094674</v>
+        <v>19.51219512195123</v>
       </c>
       <c r="L207" t="n">
         <v>9.740999999999998</v>
@@ -10836,7 +10858,7 @@
         <v>21.67</v>
       </c>
       <c r="K208" t="n">
-        <v>1.162790697674395</v>
+        <v>-25.33333333333327</v>
       </c>
       <c r="L208" t="n">
         <v>9.742999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>21.7</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571422</v>
+        <v>-38.88888888888886</v>
       </c>
       <c r="L209" t="n">
         <v>9.720999999999998</v>
@@ -10938,7 +10960,7 @@
         <v>21.79</v>
       </c>
       <c r="K210" t="n">
-        <v>-10.20408163265297</v>
+        <v>-45.67901234567898</v>
       </c>
       <c r="L210" t="n">
         <v>9.683999999999997</v>
@@ -10989,7 +11011,7 @@
         <v>21.87</v>
       </c>
       <c r="K211" t="n">
-        <v>-3.896103896103816</v>
+        <v>-26.82926829268278</v>
       </c>
       <c r="L211" t="n">
         <v>9.654999999999998</v>
@@ -11040,7 +11062,7 @@
         <v>21.95</v>
       </c>
       <c r="K212" t="n">
-        <v>-19.72789115646254</v>
+        <v>-16.66666666666659</v>
       </c>
       <c r="L212" t="n">
         <v>9.624999999999996</v>
@@ -11091,7 +11113,7 @@
         <v>21.97000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-20.80536912751678</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L213" t="n">
         <v>9.610999999999997</v>
@@ -11142,7 +11164,7 @@
         <v>22.02</v>
       </c>
       <c r="K214" t="n">
-        <v>-23.37662337662335</v>
+        <v>-58.62068965517256</v>
       </c>
       <c r="L214" t="n">
         <v>9.573999999999998</v>
@@ -11193,7 +11215,7 @@
         <v>22.04</v>
       </c>
       <c r="K215" t="n">
-        <v>-24.35897435897432</v>
+        <v>-71.42857142857135</v>
       </c>
       <c r="L215" t="n">
         <v>9.537999999999998</v>
@@ -11244,7 +11266,7 @@
         <v>22.19</v>
       </c>
       <c r="K216" t="n">
-        <v>-32.54437869822476</v>
+        <v>-75.75757575757534</v>
       </c>
       <c r="L216" t="n">
         <v>9.482999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>22.32000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-37.36263736263727</v>
+        <v>-75.38461538461476</v>
       </c>
       <c r="L217" t="n">
         <v>9.419999999999998</v>
@@ -11346,7 +11368,7 @@
         <v>22.48000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-17.51412429378527</v>
+        <v>-38.46153846153832</v>
       </c>
       <c r="L218" t="n">
         <v>9.386999999999997</v>
@@ -11397,7 +11419,7 @@
         <v>22.54000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-35.80246913580238</v>
+        <v>-36.00000000000001</v>
       </c>
       <c r="L219" t="n">
         <v>9.350999999999997</v>
@@ -11448,7 +11470,7 @@
         <v>22.74000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-24.9999999999999</v>
+        <v>-17.24137931034478</v>
       </c>
       <c r="L220" t="n">
         <v>9.343999999999998</v>
@@ -11499,7 +11521,7 @@
         <v>22.79000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-21.54696132596685</v>
+        <v>-2.380952380952532</v>
       </c>
       <c r="L221" t="n">
         <v>9.334</v>
@@ -11550,7 +11572,7 @@
         <v>22.85000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.4444444444444</v>
+        <v>6.818181818181855</v>
       </c>
       <c r="L222" t="n">
         <v>9.337999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>23.03000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>5.555555555555522</v>
+        <v>28.71287128712848</v>
       </c>
       <c r="L223" t="n">
         <v>9.361999999999998</v>
@@ -11652,7 +11674,7 @@
         <v>23.06000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.030303030302955</v>
+        <v>33.3333333333331</v>
       </c>
       <c r="L224" t="n">
         <v>9.393999999999998</v>
@@ -11703,7 +11725,7 @@
         <v>23.19000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>6.28571428571424</v>
+        <v>61.9999999999997</v>
       </c>
       <c r="L225" t="n">
         <v>9.440999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>23.21000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>5.202312138728304</v>
+        <v>86.51685393258417</v>
       </c>
       <c r="L226" t="n">
         <v>9.504999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>23.28000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>11.9999999999999</v>
+        <v>84.99999999999989</v>
       </c>
       <c r="L227" t="n">
         <v>9.588999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>23.31000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>23.17073170731701</v>
+        <v>99.99999999999977</v>
       </c>
       <c r="L228" t="n">
         <v>9.659999999999998</v>
@@ -11907,7 +11929,7 @@
         <v>23.31000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>25.46583850931668</v>
+        <v>100</v>
       </c>
       <c r="L229" t="n">
         <v>9.736999999999998</v>
@@ -11958,7 +11980,7 @@
         <v>23.34000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>30.32258064516106</v>
+        <v>89.09090909090844</v>
       </c>
       <c r="L230" t="n">
         <v>9.790999999999997</v>
@@ -12009,7 +12031,7 @@
         <v>23.34000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>26.53061224489777</v>
+        <v>87.75510204081591</v>
       </c>
       <c r="L231" t="n">
         <v>9.839999999999996</v>
@@ -12060,7 +12082,7 @@
         <v>23.35000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>32.85714285714266</v>
+        <v>75</v>
       </c>
       <c r="L232" t="n">
         <v>9.881999999999994</v>
@@ -12111,7 +12133,7 @@
         <v>23.35000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>34.78260869565214</v>
+        <v>72.41379310344817</v>
       </c>
       <c r="L233" t="n">
         <v>9.905999999999995</v>
@@ -12162,7 +12184,7 @@
         <v>23.38000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>36.76470588235276</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L234" t="n">
         <v>9.923999999999996</v>
@@ -12213,7 +12235,7 @@
         <v>23.38000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>38.8059701492535</v>
+        <v>17.6470588235299</v>
       </c>
       <c r="L235" t="n">
         <v>9.928999999999997</v>
@@ -12264,7 +12286,7 @@
         <v>23.41000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>52.45901639344227</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L236" t="n">
         <v>9.928999999999997</v>
@@ -12315,7 +12337,7 @@
         <v>23.75000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>30.06993006992998</v>
+        <v>-100</v>
       </c>
       <c r="L237" t="n">
         <v>9.887999999999996</v>
@@ -12366,7 +12388,7 @@
         <v>23.83000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>25.9259259259258</v>
+        <v>-69.23076923076906</v>
       </c>
       <c r="L238" t="n">
         <v>9.851999999999997</v>
@@ -12417,7 +12439,7 @@
         <v>23.87000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>33.83458646616536</v>
+        <v>-54.71698113207519</v>
       </c>
       <c r="L239" t="n">
         <v>9.819999999999997</v>
@@ -12468,7 +12490,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>24.13793103448263</v>
+        <v>-46.4285714285712</v>
       </c>
       <c r="L240" t="n">
         <v>9.793999999999997</v>
@@ -12519,7 +12541,7 @@
         <v>23.92000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>18.58407079646015</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L241" t="n">
         <v>9.765999999999996</v>
@@ -12570,7 +12592,7 @@
         <v>24.24000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>33.81294964028771</v>
+        <v>5.617977528089941</v>
       </c>
       <c r="L242" t="n">
         <v>9.770999999999997</v>
@@ -12621,7 +12643,7 @@
         <v>24.52000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>0.6711409395972986</v>
+        <v>-17.54385964912284</v>
       </c>
       <c r="L243" t="n">
         <v>9.747999999999999</v>
@@ -12672,7 +12694,7 @@
         <v>24.77000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>13.4502923976607</v>
+        <v>3.597122302158186</v>
       </c>
       <c r="L244" t="n">
         <v>9.752999999999998</v>
@@ -12723,7 +12745,7 @@
         <v>24.77000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>6.329113924050588</v>
+        <v>5.882352941176463</v>
       </c>
       <c r="L245" t="n">
         <v>9.757999999999999</v>
@@ -12774,7 +12796,7 @@
         <v>24.96000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>-6.285714285714228</v>
+        <v>19.00826446280988</v>
       </c>
       <c r="L246" t="n">
         <v>9.746999999999998</v>
@@ -12825,7 +12847,7 @@
         <v>24.98000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>-9.411764705882327</v>
+        <v>14.78260869565214</v>
       </c>
       <c r="L247" t="n">
         <v>9.771999999999998</v>
@@ -12876,7 +12898,7 @@
         <v>25.15000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>-1.086956521739202</v>
+        <v>23.4374999999999</v>
       </c>
       <c r="L248" t="n">
         <v>9.805999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>25.17000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>22.83464566929135</v>
       </c>
       <c r="L249" t="n">
         <v>9.837999999999997</v>
@@ -12978,7 +13000,7 @@
         <v>25.17000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>1.639344262295139</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="L250" t="n">
         <v>9.866999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>25.24000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.105263157894686</v>
+        <v>-7.99999999999998</v>
       </c>
       <c r="L251" t="n">
         <v>9.891</v>
@@ -13080,7 +13102,7 @@
         <v>25.40000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>-9.26829268292677</v>
+        <v>4.545454545454637</v>
       </c>
       <c r="L252" t="n">
         <v>9.866999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>25.41000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>-9.708737864077591</v>
+        <v>-34.3749999999996</v>
       </c>
       <c r="L253" t="n">
         <v>9.869999999999999</v>
@@ -13182,7 +13204,7 @@
         <v>25.46000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>-10.57692307692306</v>
+        <v>-39.13043478260836</v>
       </c>
       <c r="L254" t="n">
         <v>9.843</v>
@@ -13233,7 +13255,7 @@
         <v>25.59000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>-15.83710407239812</v>
+        <v>-33.33333333333305</v>
       </c>
       <c r="L255" t="n">
         <v>9.802999999999999</v>
@@ -13284,7 +13306,7 @@
         <v>25.66000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.11111111111108</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L256" t="n">
         <v>9.788999999999998</v>
@@ -13335,7 +13357,7 @@
         <v>25.74000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>8.542713567839169</v>
+        <v>-42.37288135593196</v>
       </c>
       <c r="L257" t="n">
         <v>9.780999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>25.79000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>2.040816326530658</v>
+        <v>-51.6129032258067</v>
       </c>
       <c r="L258" t="n">
         <v>9.750999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>25.84000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>2.538071065989795</v>
+        <v>-40.29850746268709</v>
       </c>
       <c r="L259" t="n">
         <v>9.724</v>
@@ -13488,7 +13510,7 @@
         <v>25.89000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>3.51758793969851</v>
+        <v>-23.07692307692331</v>
       </c>
       <c r="L260" t="n">
         <v>9.702</v>
@@ -13539,7 +13561,7 @@
         <v>25.94000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>6.930693069306961</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L261" t="n">
         <v>9.691999999999998</v>
@@ -13590,7 +13612,7 @@
         <v>25.99000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-7.428571428571488</v>
+        <v>20.68965517241397</v>
       </c>
       <c r="L262" t="n">
         <v>9.702999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>26.03000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>12.58278145695377</v>
+        <v>36.84210526315871</v>
       </c>
       <c r="L263" t="n">
         <v>9.718999999999998</v>
@@ -13692,7 +13714,7 @@
         <v>26.22000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-17.24137931034488</v>
+        <v>23.80952380952389</v>
       </c>
       <c r="L264" t="n">
         <v>9.720999999999998</v>
@@ -13743,7 +13765,7 @@
         <v>26.23000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-17.80821917808221</v>
+        <v>12.28070175438616</v>
       </c>
       <c r="L265" t="n">
         <v>9.734999999999998</v>
@@ -13794,7 +13816,7 @@
         <v>26.23000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-5.511811023622086</v>
+        <v>-2.04081632653059</v>
       </c>
       <c r="L266" t="n">
         <v>9.741999999999997</v>
@@ -13845,7 +13867,7 @@
         <v>26.42000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>-19.44444444444448</v>
+        <v>-23.80952380952404</v>
       </c>
       <c r="L267" t="n">
         <v>9.721999999999998</v>
@@ -13896,7 +13918,7 @@
         <v>26.62000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>-44.21768707482997</v>
+        <v>-51.28205128205126</v>
       </c>
       <c r="L268" t="n">
         <v>9.686999999999996</v>
@@ -13947,7 +13969,7 @@
         <v>26.95000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>-19.10112359550567</v>
+        <v>-11.32075471698107</v>
       </c>
       <c r="L269" t="n">
         <v>9.679999999999996</v>
@@ -13998,7 +14020,7 @@
         <v>27.10000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>-25.38860103626954</v>
+        <v>-27.58620689655183</v>
       </c>
       <c r="L270" t="n">
         <v>9.652999999999995</v>
@@ -14049,7 +14071,7 @@
         <v>27.12000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>-21.27659574468096</v>
+        <v>-30.97345132743363</v>
       </c>
       <c r="L271" t="n">
         <v>9.622999999999996</v>
@@ -14100,7 +14122,7 @@
         <v>27.16000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.36363636363648</v>
+        <v>-30.97345132743378</v>
       </c>
       <c r="L272" t="n">
         <v>9.591999999999995</v>
@@ -14151,7 +14173,7 @@
         <v>27.16000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>-10.857142857143</v>
+        <v>-17.02127659574474</v>
       </c>
       <c r="L273" t="n">
         <v>9.556999999999995</v>
@@ -14202,7 +14224,7 @@
         <v>27.18000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>-9.30232558139542</v>
+        <v>-17.89473684210533</v>
       </c>
       <c r="L274" t="n">
         <v>9.538999999999994</v>
@@ -14253,7 +14275,7 @@
         <v>27.25000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>2.409638554216832</v>
+        <v>-9.803921568627455</v>
       </c>
       <c r="L275" t="n">
         <v>9.528999999999995</v>
@@ -14304,7 +14326,7 @@
         <v>27.26000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>-1.249999999999983</v>
+        <v>11.90476190476192</v>
       </c>
       <c r="L276" t="n">
         <v>9.519999999999994</v>
@@ -14355,7 +14377,7 @@
         <v>27.49000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-18.85714285714297</v>
+        <v>8.045977011494106</v>
       </c>
       <c r="L277" t="n">
         <v>9.506999999999994</v>
@@ -14406,7 +14428,7 @@
         <v>27.50000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-15.78947368421056</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L278" t="n">
         <v>9.514999999999995</v>
@@ -14457,7 +14479,7 @@
         <v>27.55</v>
       </c>
       <c r="K279" t="n">
-        <v>-15.78947368421056</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L279" t="n">
         <v>9.494999999999996</v>
@@ -14508,7 +14530,7 @@
         <v>27.62</v>
       </c>
       <c r="K280" t="n">
-        <v>-22.54335260115619</v>
+        <v>-28.00000000000031</v>
       </c>
       <c r="L280" t="n">
         <v>9.482999999999995</v>
@@ -14559,7 +14581,7 @@
         <v>27.81000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-13.36898395721929</v>
+        <v>1.538461538461782</v>
       </c>
       <c r="L281" t="n">
         <v>9.487999999999996</v>
@@ -14610,7 +14632,7 @@
         <v>28.08000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>-27.27272727272733</v>
+        <v>-28.26086956521742</v>
       </c>
       <c r="L282" t="n">
         <v>9.461999999999994</v>
@@ -14661,7 +14683,7 @@
         <v>28.3</v>
       </c>
       <c r="K283" t="n">
-        <v>-17.18061674008816</v>
+        <v>-1.785714285714252</v>
       </c>
       <c r="L283" t="n">
         <v>9.457999999999995</v>
@@ -14712,7 +14734,7 @@
         <v>28.42</v>
       </c>
       <c r="K284" t="n">
-        <v>-14.54545454545453</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L284" t="n">
         <v>9.443999999999996</v>
@@ -14763,7 +14785,7 @@
         <v>28.48</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.11111111111116</v>
+        <v>-13.11475409836072</v>
       </c>
       <c r="L285" t="n">
         <v>9.428999999999995</v>
@@ -14814,7 +14836,7 @@
         <v>28.55</v>
       </c>
       <c r="K286" t="n">
-        <v>-13.79310344827594</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>9.405999999999995</v>
@@ -14865,7 +14887,7 @@
         <v>28.55</v>
       </c>
       <c r="K287" t="n">
-        <v>-6.103286384976585</v>
+        <v>-0.952380952381107</v>
       </c>
       <c r="L287" t="n">
         <v>9.405999999999995</v>
@@ -14916,7 +14938,7 @@
         <v>28.55</v>
       </c>
       <c r="K288" t="n">
-        <v>3.626943005181284</v>
+        <v>-6.000000000000071</v>
       </c>
       <c r="L288" t="n">
         <v>9.404999999999998</v>
@@ -14967,7 +14989,7 @@
         <v>28.62</v>
       </c>
       <c r="K289" t="n">
-        <v>-11.37724550898217</v>
+        <v>8.000000000000036</v>
       </c>
       <c r="L289" t="n">
         <v>9.405999999999997</v>
@@ -15018,7 +15040,7 @@
         <v>28.68</v>
       </c>
       <c r="K290" t="n">
-        <v>-6.329113924050646</v>
+        <v>-19.5402298850576</v>
       </c>
       <c r="L290" t="n">
         <v>9.407999999999998</v>
@@ -15069,7 +15091,7 @@
         <v>28.76</v>
       </c>
       <c r="K291" t="n">
-        <v>-12.19512195121954</v>
+        <v>2.941176470588466</v>
       </c>
       <c r="L291" t="n">
         <v>9.382999999999997</v>
@@ -15120,7 +15142,7 @@
         <v>28.77</v>
       </c>
       <c r="K292" t="n">
-        <v>-15.52795031055908</v>
+        <v>-44.68085106383041</v>
       </c>
       <c r="L292" t="n">
         <v>9.383999999999997</v>
@@ -15171,7 +15193,7 @@
         <v>28.8</v>
       </c>
       <c r="K293" t="n">
-        <v>-17.07317073170738</v>
+        <v>-31.57894736842169</v>
       </c>
       <c r="L293" t="n">
         <v>9.359999999999998</v>
@@ -15222,7 +15244,7 @@
         <v>28.91</v>
       </c>
       <c r="K294" t="n">
-        <v>-8.670520231213946</v>
+        <v>-16.27906976744207</v>
       </c>
       <c r="L294" t="n">
         <v>9.358999999999998</v>
@@ -15273,7 +15295,7 @@
         <v>29.02</v>
       </c>
       <c r="K295" t="n">
-        <v>-6.214689265536729</v>
+        <v>23.40425531914943</v>
       </c>
       <c r="L295" t="n">
         <v>9.363</v>
@@ -15324,7 +15346,7 @@
         <v>29.04</v>
       </c>
       <c r="K296" t="n">
-        <v>-7.865168539325817</v>
+        <v>18.36734693877603</v>
       </c>
       <c r="L296" t="n">
         <v>9.372</v>
@@ -15375,7 +15397,7 @@
         <v>29.23999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-6.285714285714292</v>
+        <v>-15.9420289855073</v>
       </c>
       <c r="L297" t="n">
         <v>9.361000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>29.38</v>
       </c>
       <c r="K298" t="n">
-        <v>1.063829787234026</v>
+        <v>-5.263157894736768</v>
       </c>
       <c r="L298" t="n">
         <v>9.364000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>29.51</v>
       </c>
       <c r="K299" t="n">
-        <v>-8.163265306122481</v>
+        <v>-13.25301204819294</v>
       </c>
       <c r="L299" t="n">
         <v>9.347</v>
@@ -15528,7 +15550,7 @@
         <v>29.52</v>
       </c>
       <c r="K300" t="n">
-        <v>-5.263157894736848</v>
+        <v>-5.263157894736977</v>
       </c>
       <c r="L300" t="n">
         <v>9.335000000000001</v>
@@ -15579,7 +15601,7 @@
         <v>29.56</v>
       </c>
       <c r="K301" t="n">
-        <v>-18.85714285714297</v>
+        <v>-8.860759493670747</v>
       </c>
       <c r="L301" t="n">
         <v>9.327000000000002</v>
@@ -15630,7 +15652,7 @@
         <v>29.7</v>
       </c>
       <c r="K302" t="n">
-        <v>-12.34567901234571</v>
+        <v>-20</v>
       </c>
       <c r="L302" t="n">
         <v>9.306000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>29.7</v>
       </c>
       <c r="K303" t="n">
-        <v>-30.00000000000018</v>
+        <v>-36.7088607594936</v>
       </c>
       <c r="L303" t="n">
         <v>9.288</v>
@@ -15732,7 +15754,7 @@
         <v>29.70999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>-22.48062015503897</v>
+        <v>-56.52173913043506</v>
       </c>
       <c r="L304" t="n">
         <v>9.26</v>
@@ -15783,7 +15805,7 @@
         <v>29.81</v>
       </c>
       <c r="K305" t="n">
-        <v>-18.79699248120308</v>
+        <v>-35.06493506493526</v>
       </c>
       <c r="L305" t="n">
         <v>9.230999999999998</v>
@@ -15834,7 +15856,7 @@
         <v>29.81999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-13.38582677165362</v>
+        <v>-10.34482758620701</v>
       </c>
       <c r="L306" t="n">
         <v>9.204999999999998</v>
@@ -15885,7 +15907,7 @@
         <v>29.92999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-20.28985507246384</v>
+        <v>-56.36363636363675</v>
       </c>
       <c r="L307" t="n">
         <v>9.187999999999999</v>
@@ -15936,7 +15958,7 @@
         <v>30.03999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-11.40939597315442</v>
+        <v>-13.20754716981152</v>
       </c>
       <c r="L308" t="n">
         <v>9.167999999999997</v>
@@ -15987,7 +16009,7 @@
         <v>30.04999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>-17.48251748251761</v>
+        <v>-13.20754716981152</v>
       </c>
       <c r="L309" t="n">
         <v>9.159999999999998</v>
@@ -16038,7 +16060,7 @@
         <v>30.04999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>-13.86861313868632</v>
+        <v>-6.122448979592133</v>
       </c>
       <c r="L310" t="n">
         <v>9.152999999999997</v>
@@ -16089,7 +16111,7 @@
         <v>30.10999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.59259259259268</v>
+        <v>12.19512195121989</v>
       </c>
       <c r="L311" t="n">
         <v>9.143999999999997</v>
@@ -16140,7 +16162,7 @@
         <v>30.12999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>-10.29411764705882</v>
+        <v>16.27906976744221</v>
       </c>
       <c r="L312" t="n">
         <v>9.150999999999998</v>
@@ -16191,7 +16213,7 @@
         <v>30.25999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>1.36986301369861</v>
+        <v>34.54545454545486</v>
       </c>
       <c r="L313" t="n">
         <v>9.170999999999998</v>
@@ -16242,7 +16264,7 @@
         <v>30.25999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>-6.666666666666702</v>
+        <v>20.00000000000032</v>
       </c>
       <c r="L314" t="n">
         <v>9.189999999999998</v>
@@ -16293,7 +16315,7 @@
         <v>30.34999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-21.8045112781957</v>
+        <v>-1.88679245283017</v>
       </c>
       <c r="L315" t="n">
         <v>9.189999999999998</v>
@@ -16344,7 +16366,7 @@
         <v>30.35999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>-21.21212121212147</v>
+        <v>20.93023255813986</v>
       </c>
       <c r="L316" t="n">
         <v>9.187999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>30.60999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>12.40875912408767</v>
+        <v>40.35087719298301</v>
       </c>
       <c r="L317" t="n">
         <v>9.221999999999998</v>
@@ -16446,7 +16468,7 @@
         <v>30.62999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>0.7999999999999898</v>
+        <v>37.93103448275907</v>
       </c>
       <c r="L318" t="n">
         <v>9.242999999999997</v>
@@ -16497,7 +16519,7 @@
         <v>30.74999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>1.612903225806433</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L319" t="n">
         <v>9.252999999999997</v>
@@ -16548,7 +16570,7 @@
         <v>30.74999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>2.43902439024387</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L320" t="n">
         <v>9.262999999999996</v>
@@ -16599,7 +16621,7 @@
         <v>30.81999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>10.14492753623196</v>
       </c>
       <c r="L321" t="n">
         <v>9.271999999999997</v>
@@ -16650,7 +16672,7 @@
         <v>30.86999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>7.692307692307739</v>
+        <v>-18.03278688524582</v>
       </c>
       <c r="L322" t="n">
         <v>9.273999999999997</v>
@@ -16701,7 +16723,7 @@
         <v>30.86999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>7.692307692307739</v>
+        <v>-18.03278688524582</v>
       </c>
       <c r="L323" t="n">
         <v>9.262999999999996</v>
@@ -16752,7 +16774,7 @@
         <v>30.88999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>5.084745762711938</v>
+        <v>-7.407407407407261</v>
       </c>
       <c r="L324" t="n">
         <v>9.249999999999996</v>
@@ -16803,7 +16825,7 @@
         <v>30.93999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>0.8849557522123797</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L325" t="n">
         <v>9.250999999999998</v>
@@ -16854,7 +16876,7 @@
         <v>30.97999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>-3.448275862068923</v>
+        <v>-72.97297297297337</v>
       </c>
       <c r="L326" t="n">
         <v>9.248999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>30.97999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>6.666666666666757</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L327" t="n">
         <v>9.221999999999998</v>
@@ -16956,7 +16978,7 @@
         <v>31.10999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>8.411214953271097</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>9.209999999999997</v>
@@ -17007,7 +17029,7 @@
         <v>31.20999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-21.73913043478283</v>
       </c>
       <c r="L329" t="n">
         <v>9.199999999999998</v>
@@ -17058,7 +17080,7 @@
         <v>31.30999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>7.936507936507965</v>
+        <v>14.28571428571413</v>
       </c>
       <c r="L330" t="n">
         <v>9.199999999999998</v>
@@ -17109,7 +17131,7 @@
         <v>31.41999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>20.61068702290086</v>
+        <v>41.81818181818238</v>
       </c>
       <c r="L331" t="n">
         <v>9.217999999999998</v>
@@ -17160,7 +17182,7 @@
         <v>31.48999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>23.52941176470603</v>
+        <v>48.38709677419414</v>
       </c>
       <c r="L332" t="n">
         <v>9.247999999999998</v>
@@ -17211,7 +17233,7 @@
         <v>31.50999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>16.80000000000016</v>
+        <v>54.83870967741987</v>
       </c>
       <c r="L333" t="n">
         <v>9.279999999999998</v>
@@ -17262,7 +17284,7 @@
         <v>31.52999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>18.11023622047258</v>
+        <v>52.54237288135635</v>
       </c>
       <c r="L334" t="n">
         <v>9.315999999999997</v>
@@ -17313,7 +17335,7 @@
         <v>31.55999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>28.92561983471087</v>
+        <v>65.51724137931036</v>
       </c>
       <c r="L335" t="n">
         <v>9.349999999999996</v>
@@ -17364,7 +17386,7 @@
         <v>31.55999999999998</v>
       </c>
       <c r="K336" t="n">
-        <v>30.00000000000006</v>
+        <v>65.51724137931036</v>
       </c>
       <c r="L336" t="n">
         <v>9.387999999999996</v>
@@ -17415,7 +17437,7 @@
         <v>31.70999999999998</v>
       </c>
       <c r="K337" t="n">
-        <v>-3.636363636363578</v>
+        <v>16.66666666666696</v>
       </c>
       <c r="L337" t="n">
         <v>9.410999999999998</v>
@@ -17466,7 +17488,7 @@
         <v>31.87999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-15.2</v>
+        <v>4.477611940298665</v>
       </c>
       <c r="L338" t="n">
         <v>9.403999999999996</v>
@@ -17517,7 +17539,7 @@
         <v>32.14999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>14.28571428571445</v>
+        <v>23.80952380952404</v>
       </c>
       <c r="L339" t="n">
         <v>9.433999999999996</v>
@@ -17568,7 +17590,7 @@
         <v>32.24999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>6.666666666666793</v>
+        <v>-1.204819277108411</v>
       </c>
       <c r="L340" t="n">
         <v>9.443999999999997</v>
@@ -17619,7 +17641,7 @@
         <v>32.29999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>14.86486486486489</v>
+        <v>-3.703703703703866</v>
       </c>
       <c r="L341" t="n">
         <v>9.447999999999997</v>
@@ -17670,7 +17692,7 @@
         <v>32.31999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>17.24137931034492</v>
+        <v>-8.641975308642023</v>
       </c>
       <c r="L342" t="n">
         <v>9.442999999999996</v>
@@ -17721,7 +17743,7 @@
         <v>32.34999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>14.86486486486497</v>
+        <v>-14.63414634146331</v>
       </c>
       <c r="L343" t="n">
         <v>9.432999999999996</v>
@@ -17772,7 +17794,7 @@
         <v>32.52999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>3.658536585365899</v>
+        <v>-34.0206185567009</v>
       </c>
       <c r="L344" t="n">
         <v>9.402999999999995</v>
@@ -17823,7 +17845,7 @@
         <v>32.73999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>12.22222222222228</v>
+        <v>-10.16949152542367</v>
       </c>
       <c r="L345" t="n">
         <v>9.390999999999996</v>
@@ -17874,7 +17896,7 @@
         <v>32.83999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>8.602150537634419</v>
+        <v>-6.194690265486737</v>
       </c>
       <c r="L346" t="n">
         <v>9.368999999999996</v>
@@ -17925,7 +17947,7 @@
         <v>32.84999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>8.021390374331579</v>
+        <v>9.278350515463913</v>
       </c>
       <c r="L347" t="n">
         <v>9.360999999999997</v>
@@ -17976,7 +17998,7 @@
         <v>32.97999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>8.021390374331595</v>
+        <v>-6.024096385542267</v>
       </c>
       <c r="L348" t="n">
         <v>9.382999999999997</v>
@@ -18027,7 +18049,7 @@
         <v>32.98999999999997</v>
       </c>
       <c r="K349" t="n">
-        <v>14.60674157303374</v>
+        <v>8.108108108107992</v>
       </c>
       <c r="L349" t="n">
         <v>9.378999999999998</v>
@@ -18078,7 +18100,7 @@
         <v>33.01999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>7.602339181286623</v>
+        <v>-2.777777777777723</v>
       </c>
       <c r="L350" t="n">
         <v>9.381999999999998</v>
@@ -18129,7 +18151,7 @@
         <v>33.07999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-2.409638554216928</v>
+        <v>-7.894736842105349</v>
       </c>
       <c r="L351" t="n">
         <v>9.373999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>33.09999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>-5.590062111801235</v>
+        <v>-1.333333333333305</v>
       </c>
       <c r="L352" t="n">
         <v>9.369999999999997</v>
@@ -18231,7 +18253,7 @@
         <v>33.12999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-4.938271604938273</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L353" t="n">
         <v>9.371999999999996</v>
@@ -18282,7 +18304,7 @@
         <v>33.16999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.536585365853689</v>
+        <v>-11.62790697674436</v>
       </c>
       <c r="L354" t="n">
         <v>9.387999999999996</v>
@@ -18333,7 +18355,7 @@
         <v>33.22999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-13.77245508982032</v>
+        <v>-2.564102564102553</v>
       </c>
       <c r="L355" t="n">
         <v>9.376999999999997</v>
@@ -18384,7 +18406,7 @@
         <v>33.22999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>-13.77245508982032</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>9.375999999999996</v>
@@ -18435,7 +18457,7 @@
         <v>33.28999999999998</v>
       </c>
       <c r="K357" t="n">
-        <v>-8.860759493670932</v>
+        <v>-61.29032258064455</v>
       </c>
       <c r="L357" t="n">
         <v>9.369999999999996</v>
@@ -18486,7 +18508,7 @@
         <v>33.40999999999998</v>
       </c>
       <c r="K358" t="n">
-        <v>9.803921568627397</v>
+        <v>-19.04761904761899</v>
       </c>
       <c r="L358" t="n">
         <v>9.362999999999996</v>
@@ -18537,7 +18559,7 @@
         <v>33.40999999999998</v>
       </c>
       <c r="K359" t="n">
-        <v>-9.523809523809618</v>
+        <v>-12.82051282051298</v>
       </c>
       <c r="L359" t="n">
         <v>9.354999999999997</v>
@@ -18588,7 +18610,7 @@
         <v>33.40999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>-1.724137931034604</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L360" t="n">
         <v>9.349999999999998</v>
@@ -18639,7 +18661,7 @@
         <v>33.42999999999998</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.964601769911474</v>
+        <v>-9.090909090909483</v>
       </c>
       <c r="L361" t="n">
         <v>9.348999999999997</v>
@@ -18690,7 +18712,7 @@
         <v>33.58999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>-18.11023622047253</v>
+        <v>-47.82608695652253</v>
       </c>
       <c r="L362" t="n">
         <v>9.329999999999997</v>
@@ -18741,7 +18763,7 @@
         <v>33.71999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>-24.08759124087609</v>
+        <v>-56.36363636363715</v>
       </c>
       <c r="L363" t="n">
         <v>9.294999999999998</v>
@@ -18792,7 +18814,7 @@
         <v>33.71999999999997</v>
       </c>
       <c r="K364" t="n">
-        <v>-12.60504201680685</v>
+        <v>-51.02040816326584</v>
       </c>
       <c r="L364" t="n">
         <v>9.263999999999998</v>
@@ -18843,7 +18865,7 @@
         <v>33.72999999999997</v>
       </c>
       <c r="K365" t="n">
-        <v>-35.35353535353575</v>
+        <v>-48.00000000000072</v>
       </c>
       <c r="L365" t="n">
         <v>9.239999999999998</v>
@@ -18894,7 +18916,7 @@
         <v>33.73999999999997</v>
       </c>
       <c r="K366" t="n">
-        <v>-26.66666666666715</v>
+        <v>-37.77777777777872</v>
       </c>
       <c r="L366" t="n">
         <v>9.216999999999997</v>
@@ -18945,7 +18967,7 @@
         <v>33.78999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>-19.14893617021307</v>
+        <v>-63.15789473684363</v>
       </c>
       <c r="L367" t="n">
         <v>9.204999999999997</v>
@@ -18996,7 +19018,7 @@
         <v>33.78999999999996</v>
       </c>
       <c r="K368" t="n">
-        <v>-38.27160493827201</v>
+        <v>-63.15789473684363</v>
       </c>
       <c r="L368" t="n">
         <v>9.180999999999996</v>
@@ -19047,7 +19069,7 @@
         <v>33.83999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>-43.52941176470645</v>
+        <v>-67.44186046511835</v>
       </c>
       <c r="L369" t="n">
         <v>9.151999999999996</v>
@@ -19098,7 +19120,7 @@
         <v>33.86999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>-36.47058823529473</v>
+        <v>-54.54545454545664</v>
       </c>
       <c r="L370" t="n">
         <v>9.125999999999994</v>
@@ -19149,7 +19171,7 @@
         <v>33.90999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>-25.30120481927748</v>
+        <v>-12.50000000000028</v>
       </c>
       <c r="L371" t="n">
         <v>9.105999999999996</v>
@@ -19200,7 +19222,7 @@
         <v>33.93999999999996</v>
       </c>
       <c r="K372" t="n">
-        <v>-23.80952380952444</v>
+        <v>54.54545454545623</v>
       </c>
       <c r="L372" t="n">
         <v>9.104999999999995</v>
@@ -19251,7 +19273,7 @@
         <v>33.94999999999996</v>
       </c>
       <c r="K373" t="n">
-        <v>-26.82926829268369</v>
+        <v>56.52173913043686</v>
       </c>
       <c r="L373" t="n">
         <v>9.117999999999995</v>
@@ -19302,7 +19324,7 @@
         <v>34.05999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>-7.865168539325857</v>
+        <v>69.69696969697169</v>
       </c>
       <c r="L374" t="n">
         <v>9.141999999999994</v>
@@ -19353,7 +19375,7 @@
         <v>34.05999999999996</v>
       </c>
       <c r="K375" t="n">
-        <v>-1.204819277108431</v>
+        <v>68.75000000000166</v>
       </c>
       <c r="L375" t="n">
         <v>9.164999999999996</v>
@@ -19404,7 +19426,7 @@
         <v>34.05999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>-1.204819277108431</v>
+        <v>62.96296296296386</v>
       </c>
       <c r="L376" t="n">
         <v>9.186999999999994</v>
@@ -19455,7 +19477,7 @@
         <v>34.05999999999996</v>
       </c>
       <c r="K377" t="n">
-        <v>6.493506493506739</v>
+        <v>62.96296296296386</v>
       </c>
       <c r="L377" t="n">
         <v>9.203999999999995</v>
@@ -19506,7 +19528,7 @@
         <v>34.10999999999996</v>
       </c>
       <c r="K378" t="n">
-        <v>-2.857142857142871</v>
+        <v>100.0000000000013</v>
       </c>
       <c r="L378" t="n">
         <v>9.225999999999996</v>
@@ -19557,7 +19579,7 @@
         <v>34.10999999999996</v>
       </c>
       <c r="K379" t="n">
-        <v>-2.857142857142871</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L379" t="n">
         <v>9.252999999999995</v>
@@ -19608,7 +19630,7 @@
         <v>34.10999999999996</v>
       </c>
       <c r="K380" t="n">
-        <v>-2.857142857142871</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L380" t="n">
         <v>9.276999999999994</v>
@@ -19659,7 +19681,7 @@
         <v>34.43999999999996</v>
       </c>
       <c r="K381" t="n">
-        <v>-32.67326732673344</v>
+        <v>-32.00000000000048</v>
       </c>
       <c r="L381" t="n">
         <v>9.263999999999992</v>
@@ -19710,7 +19732,7 @@
         <v>34.57999999999996</v>
       </c>
       <c r="K382" t="n">
-        <v>-3.030303030303025</v>
+        <v>-4.761904761904695</v>
       </c>
       <c r="L382" t="n">
         <v>9.261999999999992</v>
@@ -19761,7 +19783,7 @@
         <v>34.63999999999996</v>
       </c>
       <c r="K383" t="n">
-        <v>4.347826086956489</v>
+        <v>-34.48275862068994</v>
       </c>
       <c r="L383" t="n">
         <v>9.252999999999991</v>
@@ -19812,7 +19834,7 @@
         <v>34.74999999999996</v>
       </c>
       <c r="K384" t="n">
-        <v>-6.796116504854482</v>
+        <v>-44.92753623188428</v>
       </c>
       <c r="L384" t="n">
         <v>9.221999999999991</v>
@@ -19863,7 +19885,7 @@
         <v>34.74999999999996</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.843137254902054</v>
+        <v>-44.92753623188428</v>
       </c>
       <c r="L385" t="n">
         <v>9.190999999999992</v>
@@ -19914,7 +19936,7 @@
         <v>34.74999999999996</v>
       </c>
       <c r="K386" t="n">
-        <v>-8.910891089108977</v>
+        <v>-44.92753623188428</v>
       </c>
       <c r="L386" t="n">
         <v>9.159999999999991</v>
@@ -19965,7 +19987,7 @@
         <v>34.79999999999995</v>
       </c>
       <c r="K387" t="n">
-        <v>-18.81188118811911</v>
+        <v>-59.42028985507268</v>
       </c>
       <c r="L387" t="n">
         <v>9.123999999999992</v>
@@ -20016,7 +20038,7 @@
         <v>34.93999999999996</v>
       </c>
       <c r="K388" t="n">
-        <v>-28.69565217391326</v>
+        <v>-66.26506024096386</v>
       </c>
       <c r="L388" t="n">
         <v>9.068999999999992</v>
@@ -20067,7 +20089,7 @@
         <v>35.06999999999995</v>
       </c>
       <c r="K389" t="n">
-        <v>-12.19512195121964</v>
+        <v>-43.75000000000028</v>
       </c>
       <c r="L389" t="n">
         <v>9.026999999999992</v>
@@ -20118,7 +20140,7 @@
         <v>35.07999999999995</v>
       </c>
       <c r="K390" t="n">
-        <v>-14.04958677685965</v>
+        <v>-12.50000000000014</v>
       </c>
       <c r="L390" t="n">
         <v>8.985999999999994</v>
@@ -20169,7 +20191,7 @@
         <v>35.12999999999995</v>
       </c>
       <c r="K391" t="n">
-        <v>-13.11475409836076</v>
+        <v>-30.90909090909106</v>
       </c>
       <c r="L391" t="n">
         <v>8.982999999999993</v>
@@ -20220,7 +20242,7 @@
         <v>35.17999999999995</v>
       </c>
       <c r="K392" t="n">
-        <v>-19.35483870967763</v>
+        <v>-29.6296296296301</v>
       </c>
       <c r="L392" t="n">
         <v>8.960999999999993</v>
@@ -20271,7 +20293,7 @@
         <v>35.17999999999995</v>
       </c>
       <c r="K393" t="n">
-        <v>-20.32520325203269</v>
+        <v>-11.62790697674455</v>
       </c>
       <c r="L393" t="n">
         <v>8.944999999999993</v>
@@ -20322,7 +20344,7 @@
         <v>35.17999999999995</v>
       </c>
       <c r="K394" t="n">
-        <v>-32.14285714285753</v>
+        <v>-11.62790697674455</v>
       </c>
       <c r="L394" t="n">
         <v>8.939999999999994</v>
@@ -20373,7 +20395,7 @@
         <v>35.21999999999995</v>
       </c>
       <c r="K395" t="n">
-        <v>-34.48275862069</v>
+        <v>-19.14893617021307</v>
       </c>
       <c r="L395" t="n">
         <v>8.930999999999994</v>
@@ -20424,7 +20446,7 @@
         <v>35.27999999999995</v>
       </c>
       <c r="K396" t="n">
-        <v>-37.70491803278721</v>
+        <v>-20.8333333333334</v>
       </c>
       <c r="L396" t="n">
         <v>8.915999999999995</v>
@@ -20475,7 +20497,7 @@
         <v>35.48999999999995</v>
       </c>
       <c r="K397" t="n">
-        <v>-17.48251748251757</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L397" t="n">
         <v>8.926999999999996</v>
@@ -20526,7 +20548,7 @@
         <v>35.58999999999995</v>
       </c>
       <c r="K398" t="n">
-        <v>-13.51351351351349</v>
+        <v>42.30769230769217</v>
       </c>
       <c r="L398" t="n">
         <v>8.961999999999996</v>
@@ -20577,7 +20599,7 @@
         <v>35.85999999999996</v>
       </c>
       <c r="K399" t="n">
-        <v>-26.85714285714279</v>
+        <v>-7.692307692307447</v>
       </c>
       <c r="L399" t="n">
         <v>8.956999999999997</v>
@@ -20628,7 +20650,7 @@
         <v>35.99999999999996</v>
       </c>
       <c r="K400" t="n">
-        <v>-17.46031746031746</v>
+        <v>3.448275862068874</v>
       </c>
       <c r="L400" t="n">
         <v>8.964999999999996</v>
@@ -20679,7 +20701,7 @@
         <v>36.01999999999995</v>
       </c>
       <c r="K401" t="n">
-        <v>1.265822784810101</v>
+        <v>11.90476190476181</v>
       </c>
       <c r="L401" t="n">
         <v>8.969999999999997</v>
@@ -20730,7 +20752,7 @@
         <v>36.04999999999995</v>
       </c>
       <c r="K402" t="n">
-        <v>-10.20408163265309</v>
+        <v>8.045977011494243</v>
       </c>
       <c r="L402" t="n">
         <v>8.976999999999999</v>
@@ -20781,7 +20803,7 @@
         <v>36.17999999999996</v>
       </c>
       <c r="K403" t="n">
-        <v>2.597402597402659</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L403" t="n">
         <v>8.996999999999998</v>
@@ -20832,7 +20854,7 @@
         <v>36.18999999999996</v>
       </c>
       <c r="K404" t="n">
-        <v>11.11111111111114</v>
+        <v>25.7731958762885</v>
       </c>
       <c r="L404" t="n">
         <v>9.017999999999999</v>
@@ -20883,7 +20905,7 @@
         <v>36.36999999999995</v>
       </c>
       <c r="K405" t="n">
-        <v>-1.234567901234544</v>
+        <v>11.92660550458719</v>
       </c>
       <c r="L405" t="n">
         <v>9.024999999999999</v>
@@ -20934,7 +20956,7 @@
         <v>36.39999999999996</v>
       </c>
       <c r="K406" t="n">
-        <v>0.6060606060605936</v>
+        <v>-5.49450549450555</v>
       </c>
       <c r="L406" t="n">
         <v>9.040999999999999</v>
@@ -20985,7 +21007,7 @@
         <v>36.39999999999996</v>
       </c>
       <c r="K407" t="n">
-        <v>3.750000000000028</v>
+        <v>-18.51851851851851</v>
       </c>
       <c r="L407" t="n">
         <v>9.035999999999998</v>
@@ -21036,7 +21058,7 @@
         <v>36.39999999999996</v>
       </c>
       <c r="K408" t="n">
-        <v>13.69863013698625</v>
+        <v>22.22222222222211</v>
       </c>
       <c r="L408" t="n">
         <v>9.020999999999997</v>
@@ -21087,7 +21109,7 @@
         <v>36.54999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>-5.405405405405396</v>
+        <v>-30.90909090909106</v>
       </c>
       <c r="L409" t="n">
         <v>9.017999999999997</v>
@@ -21138,7 +21160,7 @@
         <v>36.57999999999996</v>
       </c>
       <c r="K410" t="n">
-        <v>-3.999999999999896</v>
+        <v>-28.57142857142816</v>
       </c>
       <c r="L410" t="n">
         <v>9.003999999999998</v>
@@ -21189,7 +21211,7 @@
         <v>36.58999999999996</v>
       </c>
       <c r="K411" t="n">
-        <v>-8.219178082191805</v>
+        <v>-25.92592592592573</v>
       </c>
       <c r="L411" t="n">
         <v>8.986999999999998</v>
@@ -21240,7 +21262,7 @@
         <v>36.59999999999997</v>
       </c>
       <c r="K412" t="n">
-        <v>-4.225352112675919</v>
+        <v>-61.90476190476056</v>
       </c>
       <c r="L412" t="n">
         <v>8.973999999999997</v>
@@ -21291,7 +21313,7 @@
         <v>36.61999999999996</v>
       </c>
       <c r="K413" t="n">
-        <v>-2.777777777777696</v>
+        <v>-58.13953488372001</v>
       </c>
       <c r="L413" t="n">
         <v>8.949999999999998</v>
@@ -21342,7 +21364,7 @@
         <v>36.61999999999996</v>
       </c>
       <c r="K414" t="n">
-        <v>-2.777777777777696</v>
+        <v>-27.99999999999932</v>
       </c>
       <c r="L414" t="n">
         <v>8.924999999999997</v>
@@ -21393,7 +21415,7 @@
         <v>36.75999999999996</v>
       </c>
       <c r="K415" t="n">
-        <v>9.090909090908934</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L415" t="n">
         <v>8.931999999999997</v>
@@ -21444,7 +21466,7 @@
         <v>36.75999999999996</v>
       </c>
       <c r="K416" t="n">
-        <v>13.51351351351336</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L416" t="n">
         <v>8.935999999999996</v>
@@ -21495,7 +21517,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K417" t="n">
-        <v>9.219858156028229</v>
+        <v>35.99999999999943</v>
       </c>
       <c r="L417" t="n">
         <v>8.953999999999997</v>
@@ -21546,7 +21568,7 @@
         <v>36.90999999999996</v>
       </c>
       <c r="K418" t="n">
-        <v>1.515151515151475</v>
+        <v>88.88888888888735</v>
       </c>
       <c r="L418" t="n">
         <v>8.970999999999997</v>
@@ -21597,7 +21619,7 @@
         <v>36.97999999999996</v>
       </c>
       <c r="K419" t="n">
-        <v>32.14285714285696</v>
+        <v>89.99999999999858</v>
       </c>
       <c r="L419" t="n">
         <v>9.009999999999996</v>
@@ -21648,7 +21670,7 @@
         <v>36.97999999999996</v>
       </c>
       <c r="K420" t="n">
-        <v>22.44897959183671</v>
+        <v>94.87179487179499</v>
       </c>
       <c r="L420" t="n">
         <v>9.045999999999996</v>
@@ -21699,7 +21721,7 @@
         <v>37.07999999999996</v>
       </c>
       <c r="K421" t="n">
-        <v>28.30188679245265</v>
+        <v>95.83333333333377</v>
       </c>
       <c r="L421" t="n">
         <v>9.092999999999996</v>
@@ -21750,7 +21772,7 @@
         <v>37.08999999999996</v>
       </c>
       <c r="K422" t="n">
-        <v>32.69230769230748</v>
+        <v>95.74468085106392</v>
       </c>
       <c r="L422" t="n">
         <v>9.139999999999997</v>
@@ -21801,7 +21823,7 @@
         <v>37.08999999999996</v>
       </c>
       <c r="K423" t="n">
-        <v>23.07692307692288</v>
+        <v>95.74468085106392</v>
       </c>
       <c r="L423" t="n">
         <v>9.184999999999995</v>
@@ -21852,7 +21874,7 @@
         <v>37.17999999999996</v>
       </c>
       <c r="K424" t="n">
-        <v>11.11111111111095</v>
+        <v>52.38095238095232</v>
       </c>
       <c r="L424" t="n">
         <v>9.220999999999995</v>
@@ -21903,7 +21925,7 @@
         <v>37.19999999999996</v>
       </c>
       <c r="K425" t="n">
-        <v>32.53012048192745</v>
+        <v>45.45454545454593</v>
       </c>
       <c r="L425" t="n">
         <v>9.240999999999994</v>
@@ -21954,7 +21976,7 @@
         <v>37.37999999999996</v>
       </c>
       <c r="K426" t="n">
-        <v>42.85714285714268</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L426" t="n">
         <v>9.278999999999993</v>
@@ -22005,7 +22027,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K427" t="n">
-        <v>43.99999999999964</v>
+        <v>55.10204081632622</v>
       </c>
       <c r="L427" t="n">
         <v>9.304999999999993</v>
@@ -22056,7 +22078,7 @@
         <v>37.53999999999996</v>
       </c>
       <c r="K428" t="n">
-        <v>26.3157894736841</v>
+        <v>10.71428571428576</v>
       </c>
       <c r="L428" t="n">
         <v>9.317999999999993</v>
@@ -22107,7 +22129,7 @@
         <v>37.53999999999996</v>
       </c>
       <c r="K429" t="n">
-        <v>45.45454545454514</v>
+        <v>10.71428571428576</v>
       </c>
       <c r="L429" t="n">
         <v>9.323999999999993</v>
@@ -22158,7 +22180,7 @@
         <v>37.56999999999996</v>
       </c>
       <c r="K430" t="n">
-        <v>39.39393939393891</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L430" t="n">
         <v>9.326999999999993</v>
@@ -22209,7 +22231,7 @@
         <v>37.62999999999997</v>
       </c>
       <c r="K431" t="n">
-        <v>44.23076923076905</v>
+        <v>-3.703703703703582</v>
       </c>
       <c r="L431" t="n">
         <v>9.325999999999992</v>
@@ -22260,7 +22282,7 @@
         <v>37.85999999999997</v>
       </c>
       <c r="K432" t="n">
-        <v>17.4603174603173</v>
+        <v>-32.46753246753203</v>
       </c>
       <c r="L432" t="n">
         <v>9.300999999999991</v>
@@ -22311,7 +22333,7 @@
         <v>37.87999999999997</v>
       </c>
       <c r="K433" t="n">
-        <v>17.4603174603173</v>
+        <v>-20</v>
       </c>
       <c r="L433" t="n">
         <v>9.277999999999993</v>
@@ -22362,7 +22384,7 @@
         <v>38.02999999999997</v>
       </c>
       <c r="K434" t="n">
-        <v>26.24113475177293</v>
+        <v>3.6144578313252</v>
       </c>
       <c r="L434" t="n">
         <v>9.278999999999993</v>
@@ -22413,7 +22435,7 @@
         <v>38.04999999999997</v>
       </c>
       <c r="K435" t="n">
-        <v>16.27906976744185</v>
+        <v>-25.37313432835787</v>
       </c>
       <c r="L435" t="n">
         <v>9.279999999999992</v>
@@ -22464,7 +22486,7 @@
         <v>38.17999999999997</v>
       </c>
       <c r="K436" t="n">
-        <v>5.633802816901379</v>
+        <v>-41.02564102564063</v>
       </c>
       <c r="L436" t="n">
         <v>9.249999999999993</v>
@@ -22515,7 +22537,7 @@
         <v>38.31999999999997</v>
       </c>
       <c r="K437" t="n">
-        <v>5.633802816901379</v>
+        <v>-5.128205128205193</v>
       </c>
       <c r="L437" t="n">
         <v>9.231999999999994</v>
@@ -22566,7 +22588,7 @@
         <v>38.39999999999997</v>
       </c>
       <c r="K438" t="n">
-        <v>11.40939597315429</v>
+        <v>4.65116279069754</v>
       </c>
       <c r="L438" t="n">
         <v>9.235999999999994</v>
@@ -22617,7 +22639,7 @@
         <v>38.40999999999997</v>
       </c>
       <c r="K439" t="n">
-        <v>6.293706293706254</v>
+        <v>7.142857142857173</v>
       </c>
       <c r="L439" t="n">
         <v>9.238999999999994</v>
@@ -22668,7 +22690,7 @@
         <v>38.45999999999997</v>
       </c>
       <c r="K440" t="n">
-        <v>9.459459459459472</v>
+        <v>6.024096385542267</v>
       </c>
       <c r="L440" t="n">
         <v>9.249999999999995</v>
@@ -22719,7 +22741,7 @@
         <v>38.45999999999997</v>
       </c>
       <c r="K441" t="n">
-        <v>2.898550724637742</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L441" t="n">
         <v>9.254999999999994</v>
@@ -22770,7 +22792,7 @@
         <v>38.56999999999996</v>
       </c>
       <c r="K442" t="n">
-        <v>-5.405405405405396</v>
+        <v>21.73913043478273</v>
       </c>
       <c r="L442" t="n">
         <v>9.271999999999995</v>
@@ -22821,7 +22843,7 @@
         <v>38.56999999999996</v>
       </c>
       <c r="K443" t="n">
-        <v>-5.405405405405396</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>9.286999999999994</v>
@@ -22872,7 +22894,7 @@
         <v>38.61999999999996</v>
       </c>
       <c r="K444" t="n">
-        <v>-2.777777777777723</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L444" t="n">
         <v>9.281999999999993</v>
@@ -22923,7 +22945,7 @@
         <v>38.63999999999997</v>
       </c>
       <c r="K445" t="n">
-        <v>-2.777777777777832</v>
+        <v>17.39130434782634</v>
       </c>
       <c r="L445" t="n">
         <v>9.276999999999994</v>
@@ -22974,7 +22996,7 @@
         <v>38.64999999999996</v>
       </c>
       <c r="K446" t="n">
-        <v>-18.11023622047243</v>
+        <v>-21.21212121212186</v>
       </c>
       <c r="L446" t="n">
         <v>9.283999999999994</v>
@@ -23025,7 +23047,7 @@
         <v>38.71999999999996</v>
       </c>
       <c r="K447" t="n">
-        <v>-24.24242424242426</v>
+        <v>-68.75000000000166</v>
       </c>
       <c r="L447" t="n">
         <v>9.269999999999992</v>
@@ -23076,7 +23098,7 @@
         <v>38.84999999999997</v>
       </c>
       <c r="K448" t="n">
-        <v>-3.816793893129818</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L448" t="n">
         <v>9.260999999999992</v>
@@ -23127,7 +23149,7 @@
         <v>38.98999999999997</v>
       </c>
       <c r="K449" t="n">
-        <v>-13.10344827586213</v>
+        <v>-50.94339622641524</v>
       </c>
       <c r="L449" t="n">
         <v>9.238999999999994</v>
@@ -23178,7 +23200,7 @@
         <v>38.98999999999997</v>
       </c>
       <c r="K450" t="n">
-        <v>-11.26760563380281</v>
+        <v>-50.94339622641524</v>
       </c>
       <c r="L450" t="n">
         <v>9.211999999999993</v>
@@ -23229,7 +23251,7 @@
         <v>38.98999999999997</v>
       </c>
       <c r="K451" t="n">
-        <v>-16.17647058823535</v>
+        <v>-38.09523809523797</v>
       </c>
       <c r="L451" t="n">
         <v>9.184999999999993</v>
@@ -23280,7 +23302,7 @@
         <v>38.98999999999997</v>
       </c>
       <c r="K452" t="n">
-        <v>0.8849557522123741</v>
+        <v>-38.09523809523797</v>
       </c>
       <c r="L452" t="n">
         <v>9.168999999999993</v>
@@ -23331,7 +23353,7 @@
         <v>38.98999999999997</v>
       </c>
       <c r="K453" t="n">
-        <v>-0.9009009009008822</v>
+        <v>-29.72972972972969</v>
       </c>
       <c r="L453" t="n">
         <v>9.152999999999995</v>
@@ -23382,7 +23404,7 @@
         <v>39.02999999999997</v>
       </c>
       <c r="K454" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333303</v>
       </c>
       <c r="L454" t="n">
         <v>9.137999999999995</v>
@@ -23433,7 +23455,7 @@
         <v>39.03999999999996</v>
       </c>
       <c r="K455" t="n">
-        <v>-19.19191919191924</v>
+        <v>-33.33333333333303</v>
       </c>
       <c r="L455" t="n">
         <v>9.123999999999993</v>
@@ -23484,7 +23506,7 @@
         <v>39.15999999999996</v>
       </c>
       <c r="K456" t="n">
-        <v>6.122448979591951</v>
+        <v>13.63636363636382</v>
       </c>
       <c r="L456" t="n">
         <v>9.122999999999994</v>
@@ -23535,7 +23557,7 @@
         <v>39.28999999999996</v>
       </c>
       <c r="K457" t="n">
-        <v>-21.64948453608256</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L457" t="n">
         <v>9.115999999999993</v>
@@ -23586,7 +23608,7 @@
         <v>39.30999999999997</v>
       </c>
       <c r="K458" t="n">
-        <v>-34.06593406593425</v>
+        <v>-25</v>
       </c>
       <c r="L458" t="n">
         <v>9.093999999999992</v>
@@ -23637,7 +23659,7 @@
         <v>39.42999999999996</v>
       </c>
       <c r="K459" t="n">
-        <v>-17.64705882352945</v>
+        <v>9.090909090909348</v>
       </c>
       <c r="L459" t="n">
         <v>9.097999999999994</v>
@@ -23688,7 +23710,7 @@
         <v>39.43999999999996</v>
       </c>
       <c r="K460" t="n">
-        <v>-24.48979591836745</v>
+        <v>6.666666666666983</v>
       </c>
       <c r="L460" t="n">
         <v>9.100999999999994</v>
@@ -23739,7 +23761,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K461" t="n">
-        <v>-35.08771929824563</v>
+        <v>-21.31147540983592</v>
       </c>
       <c r="L461" t="n">
         <v>9.087999999999994</v>
@@ -23790,7 +23812,7 @@
         <v>39.62999999999997</v>
       </c>
       <c r="K462" t="n">
-        <v>-30.18867924528298</v>
+        <v>-25</v>
       </c>
       <c r="L462" t="n">
         <v>9.071999999999994</v>
@@ -23841,7 +23863,7 @@
         <v>39.63999999999997</v>
       </c>
       <c r="K463" t="n">
-        <v>-28.97196261682211</v>
+        <v>-18.03278688524562</v>
       </c>
       <c r="L463" t="n">
         <v>9.056999999999995</v>
@@ -23892,7 +23914,7 @@
         <v>39.81999999999997</v>
       </c>
       <c r="K464" t="n">
-        <v>-6.666666666666618</v>
+        <v>10.25641025641016</v>
       </c>
       <c r="L464" t="n">
         <v>9.063999999999997</v>
@@ -23943,7 +23965,7 @@
         <v>40.03999999999997</v>
       </c>
       <c r="K465" t="n">
-        <v>-19.99999999999987</v>
+        <v>-29.5454545454542</v>
       </c>
       <c r="L465" t="n">
         <v>9.049999999999995</v>
@@ -23994,7 +24016,7 @@
         <v>40.22999999999997</v>
       </c>
       <c r="K466" t="n">
-        <v>-29.11392405063275</v>
+        <v>-34.04255319148922</v>
       </c>
       <c r="L466" t="n">
         <v>9.004999999999995</v>
@@ -24045,7 +24067,7 @@
         <v>40.24999999999997</v>
       </c>
       <c r="K467" t="n">
-        <v>-24.18300653594753</v>
+        <v>-29.78723404255297</v>
       </c>
       <c r="L467" t="n">
         <v>8.974999999999996</v>
@@ -24096,7 +24118,7 @@
         <v>40.25999999999997</v>
       </c>
       <c r="K468" t="n">
-        <v>-36.17021276595734</v>
+        <v>-49.39759036144548</v>
       </c>
       <c r="L468" t="n">
         <v>8.945999999999994</v>
@@ -24147,7 +24169,7 @@
         <v>40.34999999999997</v>
       </c>
       <c r="K469" t="n">
-        <v>-20.58823529411761</v>
+        <v>-34.06593406593398</v>
       </c>
       <c r="L469" t="n">
         <v>8.913999999999994</v>
@@ -24198,7 +24220,7 @@
         <v>40.56999999999996</v>
       </c>
       <c r="K470" t="n">
-        <v>-3.797468354430303</v>
+        <v>7.216494845360863</v>
       </c>
       <c r="L470" t="n">
         <v>8.904999999999994</v>
@@ -24249,7 +24271,7 @@
         <v>40.60999999999996</v>
       </c>
       <c r="K471" t="n">
-        <v>-1.234567901234544</v>
+        <v>14.28571428571439</v>
       </c>
       <c r="L471" t="n">
         <v>8.915999999999993</v>
@@ -24300,7 +24322,7 @@
         <v>40.60999999999996</v>
       </c>
       <c r="K472" t="n">
-        <v>-1.234567901234544</v>
+        <v>13.40206185567011</v>
       </c>
       <c r="L472" t="n">
         <v>8.929999999999994</v>
@@ -24351,7 +24373,7 @@
         <v>40.93999999999996</v>
       </c>
       <c r="K473" t="n">
-        <v>-17.94871794871797</v>
+        <v>-33.92857142857179</v>
       </c>
       <c r="L473" t="n">
         <v>8.909999999999993</v>
@@ -24402,7 +24424,7 @@
         <v>41.25999999999996</v>
       </c>
       <c r="K474" t="n">
-        <v>0.4484304932735337</v>
+        <v>13.11475409836076</v>
       </c>
       <c r="L474" t="n">
         <v>8.903999999999993</v>
@@ -24453,7 +24475,7 @@
         <v>41.48999999999997</v>
       </c>
       <c r="K475" t="n">
-        <v>-8.571428571428596</v>
+        <v>9.523809523809478</v>
       </c>
       <c r="L475" t="n">
         <v>8.896999999999993</v>
@@ -24504,7 +24526,7 @@
         <v>41.72999999999997</v>
       </c>
       <c r="K476" t="n">
-        <v>-3.501945525291813</v>
+        <v>22.97297297297301</v>
       </c>
       <c r="L476" t="n">
         <v>8.932999999999993</v>
@@ -24555,7 +24577,7 @@
         <v>41.73999999999997</v>
       </c>
       <c r="K477" t="n">
-        <v>1.22448979591834</v>
+        <v>22.97297297297301</v>
       </c>
       <c r="L477" t="n">
         <v>8.965999999999992</v>
@@ -24606,7 +24628,7 @@
         <v>41.76999999999997</v>
       </c>
       <c r="K478" t="n">
-        <v>0.8130081300813554</v>
+        <v>15.4929577464789</v>
       </c>
       <c r="L478" t="n">
         <v>8.996999999999993</v>
@@ -24657,7 +24679,7 @@
         <v>41.77999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>-4.680851063829822</v>
+        <v>-0.8264462809918592</v>
       </c>
       <c r="L479" t="n">
         <v>9.017999999999994</v>
@@ -24708,7 +24730,7 @@
         <v>41.77999999999997</v>
       </c>
       <c r="K480" t="n">
-        <v>-4.273504273504315</v>
+        <v>-4.273504273504302</v>
       </c>
       <c r="L480" t="n">
         <v>9.016999999999994</v>
@@ -24759,7 +24781,7 @@
         <v>41.81999999999997</v>
       </c>
       <c r="K481" t="n">
-        <v>4.504504504504476</v>
+        <v>-0.8264462809917125</v>
       </c>
       <c r="L481" t="n">
         <v>9.015999999999995</v>
@@ -24810,7 +24832,7 @@
         <v>41.89999999999997</v>
       </c>
       <c r="K482" t="n">
-        <v>2.202643171806196</v>
+        <v>24.99999999999982</v>
       </c>
       <c r="L482" t="n">
         <v>9.006999999999994</v>
@@ -24861,7 +24883,7 @@
         <v>41.94999999999997</v>
       </c>
       <c r="K483" t="n">
-        <v>-0.4329004329005001</v>
+        <v>-18.84057971014471</v>
       </c>
       <c r="L483" t="n">
         <v>9.025999999999993</v>
@@ -24912,7 +24934,7 @@
         <v>42.05999999999997</v>
       </c>
       <c r="K484" t="n">
-        <v>-3.571428571428571</v>
+        <v>36.84210526315756</v>
       </c>
       <c r="L484" t="n">
         <v>9.023999999999994</v>
@@ -24963,7 +24985,7 @@
         <v>42.28999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-3.999999999999981</v>
+        <v>-46.42857142857061</v>
       </c>
       <c r="L485" t="n">
         <v>9.021999999999995</v>
@@ -25014,7 +25036,7 @@
         <v>42.49999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>13.65638766519812</v>
+        <v>-5.263157894736879</v>
       </c>
       <c r="L486" t="n">
         <v>9.016999999999992</v>
@@ -25065,7 +25087,7 @@
         <v>42.53999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>10.91703056768556</v>
+        <v>-6.4935064935065</v>
       </c>
       <c r="L487" t="n">
         <v>9.008999999999993</v>
@@ -25116,7 +25138,7 @@
         <v>42.63999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>6.722689075630231</v>
+        <v>-16.27906976744159</v>
       </c>
       <c r="L488" t="n">
         <v>8.993999999999994</v>
@@ -25167,7 +25189,7 @@
         <v>42.76999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-2.479338842975211</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L489" t="n">
         <v>8.966999999999993</v>
@@ -25218,7 +25240,7 @@
         <v>42.89999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>-6.437768240343308</v>
+        <v>-16.66666666666645</v>
       </c>
       <c r="L490" t="n">
         <v>8.952999999999994</v>
@@ -25269,7 +25291,7 @@
         <v>42.94999999999998</v>
       </c>
       <c r="K491" t="n">
-        <v>-5.982905982905963</v>
+        <v>-4.761904761904779</v>
       </c>
       <c r="L491" t="n">
         <v>8.939999999999994</v>
@@ -25320,7 +25342,7 @@
         <v>42.98999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>-7.563025210083968</v>
+        <v>-3.846153846153741</v>
       </c>
       <c r="L492" t="n">
         <v>8.930999999999994</v>
@@ -25371,7 +25393,7 @@
         <v>43.00999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>6.280193236714969</v>
+        <v>-17.8947368421052</v>
       </c>
       <c r="L493" t="n">
         <v>8.924999999999994</v>
@@ -25422,7 +25444,7 @@
         <v>43.11999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-16.12903225806443</v>
+        <v>-6.024096385542267</v>
       </c>
       <c r="L494" t="n">
         <v>8.896999999999995</v>
@@ -25473,7 +25495,7 @@
         <v>43.13999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>-5.454545454545427</v>
+        <v>-43.75000000000035</v>
       </c>
       <c r="L495" t="n">
         <v>8.889999999999995</v>
@@ -25524,7 +25546,7 @@
         <v>43.15999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>-21.67832167832172</v>
+        <v>-35.48387096774259</v>
       </c>
       <c r="L496" t="n">
         <v>8.863999999999995</v>
@@ -25575,7 +25597,7 @@
         <v>43.16999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>-21.67832167832172</v>
+        <v>-24.52830188679321</v>
       </c>
       <c r="L497" t="n">
         <v>8.840999999999996</v>
@@ -25626,7 +25648,7 @@
         <v>43.16999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>8.827999999999994</v>
@@ -25677,7 +25699,7 @@
         <v>43.19999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>-21.12676056338029</v>
+        <v>-53.33333333333641</v>
       </c>
       <c r="L499" t="n">
         <v>8.824999999999994</v>
@@ -25728,7 +25750,7 @@
         <v>43.32999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>-27.741935483871</v>
+        <v>-89.47368421052903</v>
       </c>
       <c r="L500" t="n">
         <v>8.795999999999994</v>
@@ -25779,7 +25801,7 @@
         <v>43.56999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>-13.14285714285717</v>
+        <v>-10.34482758620714</v>
       </c>
       <c r="L501" t="n">
         <v>8.785999999999992</v>
@@ -25830,7 +25852,7 @@
         <v>43.59999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>-10.58823529411761</v>
+        <v>-11.86440677966114</v>
       </c>
       <c r="L502" t="n">
         <v>8.776999999999992</v>
@@ -25881,7 +25903,7 @@
         <v>43.64999999999998</v>
       </c>
       <c r="K503" t="n">
-        <v>-10.58823529411761</v>
+        <v>-1.886792452830145</v>
       </c>
       <c r="L503" t="n">
         <v>8.764999999999992</v>
@@ -25932,7 +25954,7 @@
         <v>43.65999999999998</v>
       </c>
       <c r="K504" t="n">
-        <v>-18.75000000000003</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>8.762999999999993</v>
@@ -25983,7 +26005,7 @@
         <v>43.75999999999998</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.56462585034014</v>
+        <v>-19.99999999999958</v>
       </c>
       <c r="L505" t="n">
         <v>8.752999999999991</v>
@@ -26034,7 +26056,7 @@
         <v>43.96999999999998</v>
       </c>
       <c r="K506" t="n">
-        <v>-11.56462585034014</v>
+        <v>12.49999999999978</v>
       </c>
       <c r="L506" t="n">
         <v>8.761999999999992</v>
@@ -26085,7 +26107,7 @@
         <v>43.99999999999998</v>
       </c>
       <c r="K507" t="n">
-        <v>-6.849315068493123</v>
+        <v>15.6626506024095</v>
       </c>
       <c r="L507" t="n">
         <v>8.774999999999993</v>
@@ -26136,7 +26158,7 @@
         <v>44.06999999999998</v>
       </c>
       <c r="K508" t="n">
-        <v>4.895104895104916</v>
+        <v>26.4367816091951</v>
       </c>
       <c r="L508" t="n">
         <v>8.794999999999993</v>
@@ -26187,7 +26209,7 @@
         <v>44.12999999999998</v>
       </c>
       <c r="K509" t="n">
-        <v>19.11764705882352</v>
+        <v>52.49999999999925</v>
       </c>
       <c r="L509" t="n">
         <v>8.823999999999995</v>
@@ -26238,7 +26260,7 @@
         <v>44.15999999999998</v>
       </c>
       <c r="K510" t="n">
-        <v>7.936507936507921</v>
+        <v>25.42372881355893</v>
       </c>
       <c r="L510" t="n">
         <v>8.862999999999994</v>
@@ -26289,7 +26311,7 @@
         <v>44.21999999999998</v>
       </c>
       <c r="K511" t="n">
-        <v>-0.7874015748031309</v>
+        <v>19.35483870967693</v>
       </c>
       <c r="L511" t="n">
         <v>8.871999999999995</v>
@@ -26340,7 +26362,7 @@
         <v>44.28999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>7.69230769230764</v>
+        <v>37.49999999999958</v>
       </c>
       <c r="L512" t="n">
         <v>8.890999999999995</v>
@@ -26391,7 +26413,7 @@
         <v>44.32999999999998</v>
       </c>
       <c r="K513" t="n">
-        <v>6.060606060606032</v>
+        <v>31.34328358208926</v>
       </c>
       <c r="L513" t="n">
         <v>8.910999999999994</v>
@@ -26442,7 +26464,7 @@
         <v>44.35999999999999</v>
       </c>
       <c r="K514" t="n">
-        <v>17.74193548387089</v>
+        <v>56.66666666666583</v>
       </c>
       <c r="L514" t="n">
         <v>8.934999999999993</v>
@@ -26493,7 +26515,7 @@
         <v>44.38999999999999</v>
       </c>
       <c r="K515" t="n">
-        <v>21.59999999999972</v>
+        <v>38.09523809523733</v>
       </c>
       <c r="L515" t="n">
         <v>8.971999999999994</v>
@@ -26544,7 +26566,7 @@
         <v>44.40999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>18.39999999999982</v>
+        <v>26.82926829268255</v>
       </c>
       <c r="L516" t="n">
         <v>8.985999999999994</v>
@@ -26595,7 +26617,7 @@
         <v>44.40999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>19.35483870967718</v>
+        <v>11.76470588235257</v>
       </c>
       <c r="L517" t="n">
         <v>8.996999999999995</v>
@@ -26646,7 +26668,7 @@
         <v>44.41999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>18.39999999999982</v>
+        <v>-10.34482758620671</v>
       </c>
       <c r="L518" t="n">
         <v>8.999999999999995</v>
@@ -26697,7 +26719,7 @@
         <v>44.42999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>20.32520325203234</v>
+        <v>-3.703703703703679</v>
       </c>
       <c r="L519" t="n">
         <v>8.995999999999993</v>
@@ -26748,7 +26770,7 @@
         <v>44.46999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>29.82456140350856</v>
+        <v>4.000000000000028</v>
       </c>
       <c r="L520" t="n">
         <v>8.990999999999994</v>
@@ -26799,7 +26821,7 @@
         <v>44.48999999999998</v>
       </c>
       <c r="K521" t="n">
-        <v>8.695652173912968</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L521" t="n">
         <v>8.989999999999995</v>
@@ -26850,7 +26872,7 @@
         <v>44.56999999999998</v>
       </c>
       <c r="K522" t="n">
-        <v>19.58762886597921</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L522" t="n">
         <v>8.989999999999995</v>
@@ -26901,7 +26923,7 @@
         <v>44.62999999999998</v>
       </c>
       <c r="K523" t="n">
-        <v>18.36734693877541</v>
+        <v>-18.51851851851906</v>
       </c>
       <c r="L523" t="n">
         <v>8.987999999999996</v>
@@ -26952,7 +26974,7 @@
         <v>44.62999999999998</v>
       </c>
       <c r="K524" t="n">
-        <v>19.58762886597921</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L524" t="n">
         <v>8.982999999999995</v>
@@ -27003,7 +27025,7 @@
         <v>44.62999999999998</v>
       </c>
       <c r="K525" t="n">
-        <v>33.33333333333306</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L525" t="n">
         <v>8.974999999999996</v>
@@ -27054,7 +27076,7 @@
         <v>44.67999999999998</v>
       </c>
       <c r="K526" t="n">
-        <v>4.225352112676211</v>
+        <v>-40.74074074074113</v>
       </c>
       <c r="L526" t="n">
         <v>8.963999999999995</v>
@@ -27105,7 +27127,7 @@
         <v>44.71999999999998</v>
       </c>
       <c r="K527" t="n">
-        <v>-5.555555555555693</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L527" t="n">
         <v>8.948999999999995</v>
@@ -27156,7 +27178,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K528" t="n">
-        <v>-4.109589041096064</v>
+        <v>-13.5135135135138</v>
       </c>
       <c r="L528" t="n">
         <v>8.942999999999994</v>
@@ -27207,7 +27229,7 @@
         <v>44.99999999999997</v>
       </c>
       <c r="K529" t="n">
-        <v>-33.33333333333361</v>
+        <v>-39.62264150943424</v>
       </c>
       <c r="L529" t="n">
         <v>8.917999999999996</v>
@@ -27258,7 +27280,7 @@
         <v>45.04999999999997</v>
       </c>
       <c r="K530" t="n">
-        <v>-34.8314606741579</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L530" t="n">
         <v>8.891999999999994</v>
@@ -27309,7 +27331,7 @@
         <v>45.27999999999997</v>
       </c>
       <c r="K531" t="n">
-        <v>-1.88679245283017</v>
+        <v>-12.67605633802826</v>
       </c>
       <c r="L531" t="n">
         <v>8.890999999999995</v>
@@ -27360,7 +27382,7 @@
         <v>45.28999999999997</v>
       </c>
       <c r="K532" t="n">
-        <v>-10.00000000000011</v>
+        <v>-6.060606060606029</v>
       </c>
       <c r="L532" t="n">
         <v>8.880999999999993</v>
@@ -27411,7 +27433,7 @@
         <v>45.28999999999997</v>
       </c>
       <c r="K533" t="n">
-        <v>-6.250000000000139</v>
+        <v>-6.060606060606029</v>
       </c>
       <c r="L533" t="n">
         <v>8.876999999999992</v>
@@ -27462,7 +27484,7 @@
         <v>45.29999999999997</v>
       </c>
       <c r="K534" t="n">
-        <v>-10.63829787234057</v>
+        <v>-7.462686567164159</v>
       </c>
       <c r="L534" t="n">
         <v>8.871999999999993</v>
@@ -27513,7 +27535,7 @@
         <v>45.31999999999996</v>
       </c>
       <c r="K535" t="n">
-        <v>-11.82795698924753</v>
+        <v>3.125</v>
       </c>
       <c r="L535" t="n">
         <v>8.868999999999993</v>
@@ -27564,7 +27586,7 @@
         <v>45.35999999999996</v>
       </c>
       <c r="K536" t="n">
-        <v>-13.68421052631595</v>
+        <v>3.125000000000278</v>
       </c>
       <c r="L536" t="n">
         <v>8.866999999999992</v>
@@ -27615,7 +27637,7 @@
         <v>45.43999999999996</v>
       </c>
       <c r="K537" t="n">
-        <v>-20.38834951456342</v>
+        <v>-21.87500000000028</v>
       </c>
       <c r="L537" t="n">
         <v>8.860999999999992</v>
@@ -27666,7 +27688,7 @@
         <v>45.51999999999996</v>
       </c>
       <c r="K538" t="n">
-        <v>-10.90909090909103</v>
+        <v>26.92307692307761</v>
       </c>
       <c r="L538" t="n">
         <v>8.854999999999992</v>

--- a/BackTest/2019-10-06 BackTest ZIL.xlsx
+++ b/BackTest/2019-10-06 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1937699.702258845</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1898376.032158845</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1995542.557758845</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>2136610.383858845</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +603,15 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>9.48</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,17 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,15 @@
         <v>1606579.728558845</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +790,15 @@
         <v>1609189.151958845</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -783,9 +829,15 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>9.34</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -816,9 +868,15 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>9.35</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -849,9 +907,15 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>9.33</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +944,15 @@
         <v>1670296.520858845</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +985,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1018,15 @@
         <v>1674831.916558845</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1055,15 @@
         <v>1646212.861558845</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1092,15 @@
         <v>1429834.142158845</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1129,15 @@
         <v>1438098.443158845</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1166,15 @@
         <v>1438098.443158845</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1203,15 @@
         <v>1414784.441458846</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1244,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1281,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1318,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1355,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1392,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1429,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1466,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1503,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1540,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1577,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1614,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1651,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1688,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1725,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1799,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1836,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1947,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1984,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2021,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2058,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2095,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2132,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2169,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2206,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2243,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2280,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2317,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2354,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2391,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2428,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2461,15 @@
         <v>4369248.48374549</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2498,15 @@
         <v>4369268.48374549</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2539,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2572,15 @@
         <v>3958191.78064549</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2609,15 @@
         <v>3958191.78064549</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2646,15 @@
         <v>4016100.55444549</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2687,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2724,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2761,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2798,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2835,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2872,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2909,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2946,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2979,15 @@
         <v>6953229.75904549</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3016,15 @@
         <v>6396108.77004549</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3053,15 @@
         <v>6571899.70134549</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3090,15 @@
         <v>5463064.81754549</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3127,15 @@
         <v>5463064.81754549</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3168,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3201,15 @@
         <v>5868018.089735967</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3238,15 @@
         <v>5931203.783635967</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3279,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3316,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3353,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3390,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3427,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3460,15 @@
         <v>6022777.140935967</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3501,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3534,15 @@
         <v>6022777.140935967</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3575,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3608,15 @@
         <v>5113348.521435967</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3649,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3686,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3723,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3760,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3797,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3834,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3871,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3908,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3945,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3978,15 @@
         <v>6646541.806857784</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4019,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4052,15 @@
         <v>6730218.378857784</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4089,15 @@
         <v>6942580.502875541</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4130,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4167,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4200,15 @@
         <v>7813569.395799669</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4237,15 @@
         <v>7694948.176678948</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4278,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4315,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4352,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4389,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4422,15 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4463,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4496,15 @@
         <v>7920574.994786425</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +4533,16 @@
         <v>7894159.900386426</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4114,7 +4568,7 @@
         <v>7897964.142286425</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4601,7 @@
         <v>7897964.142286425</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4634,7 @@
         <v>7808747.961986425</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4667,7 @@
         <v>8091920.036663995</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4700,7 @@
         <v>8082955.036663995</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4733,7 @@
         <v>7972619.467163995</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4766,7 @@
         <v>7994571.125963995</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4799,7 @@
         <v>7952674.339154736</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4832,7 @@
         <v>8048141.928154736</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4865,7 @@
         <v>8179766.584254736</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4898,7 @@
         <v>8121902.508954736</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4931,7 @@
         <v>7799253.748654736</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4964,7 @@
         <v>7826091.654954736</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4997,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5030,7 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5063,7 @@
         <v>7752727.074154736</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5096,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5129,7 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5162,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5195,7 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5228,7 @@
         <v>8074540.368854735</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5261,7 @@
         <v>8064273.732954735</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5294,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5327,7 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +5393,7 @@
         <v>7761348.705654735</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5426,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5492,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5525,7 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5558,7 @@
         <v>7872619.781554734</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5591,7 @@
         <v>7873521.264154734</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5624,7 @@
         <v>7866707.761454734</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5657,7 @@
         <v>7891408.523249972</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5690,7 @@
         <v>7890844.098549971</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5723,7 @@
         <v>7951439.097549971</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5756,7 @@
         <v>7951439.097549971</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5789,7 @@
         <v>8057178.240349971</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5822,7 @@
         <v>8338468.007349971</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5855,7 @@
         <v>8333089.866749971</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5888,7 @@
         <v>8296532.520949971</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5533,7 +5987,7 @@
         <v>8296542.520949971</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +6086,7 @@
         <v>8296542.520949971</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6119,7 @@
         <v>8180888.081249971</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6152,7 @@
         <v>8208895.536649971</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6185,7 @@
         <v>7970854.385849971</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6218,7 @@
         <v>7923837.769749971</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6251,7 @@
         <v>7923837.769749971</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6284,7 @@
         <v>7923937.769749971</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6317,7 @@
         <v>7923947.769749971</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6350,7 @@
         <v>7923947.769749971</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6383,7 @@
         <v>7904985.871649971</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6416,7 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6449,7 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6482,7 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6515,7 @@
         <v>7760259.309249971</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6548,7 @@
         <v>7581569.396149971</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6581,7 @@
         <v>7581591.396149971</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6614,7 @@
         <v>7557486.206349971</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6647,7 @@
         <v>7557486.206349971</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6680,7 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6713,7 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6746,7 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6779,7 @@
         <v>7567598.265149971</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6812,7 @@
         <v>7570441.34544997</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6845,7 @@
         <v>7750896.87774997</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6878,7 @@
         <v>7749220.72004997</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6911,7 @@
         <v>7954185.64634997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6944,7 @@
         <v>8054013.819349971</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6589,7 +7043,7 @@
         <v>7968329.579697589</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7076,7 @@
         <v>7969381.579697589</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7109,7 @@
         <v>7860654.80859759</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7142,7 @@
         <v>7860654.80859759</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7175,7 @@
         <v>7860654.80859759</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7208,7 @@
         <v>7860654.80859759</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7241,7 @@
         <v>7860654.80859759</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7274,7 @@
         <v>7784881.528697589</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7307,7 @@
         <v>7784881.528697589</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7340,7 @@
         <v>7784881.528697589</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7373,7 @@
         <v>8156179.910897589</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7406,7 @@
         <v>8156179.910897589</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7439,7 @@
         <v>8113414.41779759</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7472,7 @@
         <v>8113940.92259759</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7505,7 @@
         <v>8059496.21679759</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7538,7 @@
         <v>7733122.23099759</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7571,7 @@
         <v>7675499.308097591</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7604,7 @@
         <v>7762048.821489373</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7637,7 @@
         <v>7722374.071889373</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7670,7 @@
         <v>7750978.587189374</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7703,7 @@
         <v>7750768.920589373</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7736,7 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7769,7 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7802,7 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7835,7 @@
         <v>7715107.832089374</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7868,7 @@
         <v>7715107.832089374</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7901,7 @@
         <v>8036926.859289374</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7934,7 @@
         <v>8309348.559389374</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7967,7 @@
         <v>8146554.847489374</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8000,7 @@
         <v>8146554.847489374</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8033,7 @@
         <v>8329387.559789374</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7975,7 +8429,7 @@
         <v>8137950.911489373</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8462,7 @@
         <v>8137950.911489373</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8495,7 @@
         <v>8137950.911489373</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8528,7 @@
         <v>8137950.911489373</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8561,7 @@
         <v>8137506.434389373</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8594,7 @@
         <v>8117730.682889373</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8627,7 @@
         <v>7943768.201889373</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8660,7 @@
         <v>7922498.563589374</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8693,7 @@
         <v>7528334.750189373</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8726,7 @@
         <v>7334967.608789373</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8759,7 @@
         <v>6668051.560789373</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8792,7 @@
         <v>6401939.841089373</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8825,7 @@
         <v>6133722.501289372</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8858,7 @@
         <v>6133722.501289372</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8891,7 @@
         <v>6133712.501289372</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8924,7 @@
         <v>6133712.501289372</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8957,7 @@
         <v>6176432.264389372</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8990,7 @@
         <v>6208183.261989373</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +9023,7 @@
         <v>6309869.212889372</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +9056,7 @@
         <v>6307854.206889372</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +9089,7 @@
         <v>6274641.828489373</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9122,7 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9155,7 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9188,7 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +9287,7 @@
         <v>6747573.872189372</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9320,7 @@
         <v>6693323.137589372</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9353,7 @@
         <v>6693334.137589372</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9386,7 @@
         <v>6703779.872789372</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9419,7 @@
         <v>6703779.872789372</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9452,7 @@
         <v>6601347.281989371</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9485,7 @@
         <v>6457031.882889371</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9518,7 @@
         <v>6495553.882889371</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9584,7 @@
         <v>6495565.529289371</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9617,7 @@
         <v>6494554.193889371</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9427,7 +9881,7 @@
         <v>4917955.13618937</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9823,7 +10277,7 @@
         <v>5889844.434289371</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10087,7 +10541,7 @@
         <v>5196209.925589371</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10574,7 @@
         <v>5185138.224089371</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10640,7 @@
         <v>5192437.160489371</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10673,7 @@
         <v>5192459.160489371</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10706,7 @@
         <v>5282918.298120388</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10351,7 +10805,7 @@
         <v>5484472.45198937</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10838,7 @@
         <v>5538442.602689371</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10871,7 @@
         <v>5538442.602689371</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10904,7 @@
         <v>5538422.602689371</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10937,7 @@
         <v>5539557.602689371</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10970,7 @@
         <v>5539688.38668937</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +11003,7 @@
         <v>5555725.39228937</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +11036,7 @@
         <v>5555725.39228937</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +11069,7 @@
         <v>5555711.35188937</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12958,7 +13412,7 @@
         <v>4273869.867198035</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13354,7 +13808,7 @@
         <v>5217068.898098035</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13841,7 @@
         <v>5233848.738698035</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13874,7 @@
         <v>5233848.738698035</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13907,7 @@
         <v>5233824.950698035</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13940,7 @@
         <v>4748271.037198035</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13684,7 +14138,7 @@
         <v>4833483.430798035</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13948,7 +14402,7 @@
         <v>4867467.755998035</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14435,7 @@
         <v>4867767.755998035</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14468,7 @@
         <v>4867460.755998035</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14080,17 +14534,11 @@
         <v>4768784.683498035</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>9.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +14571,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14156,17 +14600,11 @@
         <v>4793072.851498036</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>9.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14199,11 +14637,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14232,17 +14666,11 @@
         <v>4793072.851498036</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>9.369999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14271,17 +14699,11 @@
         <v>4791628.851498036</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>9.369999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14310,15 +14732,11 @@
         <v>4387661.745598036</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +14769,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14384,17 +14798,11 @@
         <v>4186730.156198036</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>9.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14427,11 +14835,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14460,17 +14864,11 @@
         <v>4330241.697198036</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>9.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14499,17 +14897,11 @@
         <v>4372987.457698036</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>9.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14538,17 +14930,11 @@
         <v>4372987.457698036</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>9.130000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14577,17 +14963,11 @@
         <v>4372977.457698036</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>9.130000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14616,17 +14996,11 @@
         <v>4405403.730498036</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>9.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14655,17 +15029,11 @@
         <v>4490253.295098037</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>9.109999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14694,17 +15062,11 @@
         <v>4624237.595998037</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>9.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14733,17 +15095,11 @@
         <v>4736127.519698037</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>9.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14772,17 +15128,11 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>9.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14811,17 +15161,11 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>9.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14850,17 +15194,11 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>9.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14889,17 +15227,11 @@
         <v>4736160.519698037</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>9.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +15264,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14965,16 +15293,14 @@
         <v>4736715.519698037</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
       <c r="M438" t="inlineStr"/>
     </row>
     <row r="439">
@@ -15000,14 +15326,10 @@
         <v>4736715.519698037</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="J439" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
@@ -15037,17 +15359,11 @@
         <v>4275430.491498037</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15076,17 +15392,11 @@
         <v>4275441.491498037</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15115,17 +15425,11 @@
         <v>4275421.491498037</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15157,14 +15461,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15196,14 +15494,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15232,19 +15524,11 @@
         <v>4056191.066398037</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J445" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15273,19 +15557,11 @@
         <v>3926191.066398037</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J446" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15314,19 +15590,11 @@
         <v>3596074.491098037</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J447" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15355,19 +15623,11 @@
         <v>3636089.334098037</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J448" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15396,19 +15656,11 @@
         <v>3688111.356698037</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J449" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15437,19 +15689,11 @@
         <v>3802520.856698037</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J450" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15478,19 +15722,11 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J451" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15519,19 +15755,11 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J452" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15560,19 +15788,11 @@
         <v>3729566.449198036</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J453" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15601,19 +15821,11 @@
         <v>3694481.538298036</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J454" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15642,19 +15854,11 @@
         <v>3694406.538298036</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J455" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15683,19 +15887,11 @@
         <v>4071272.564798037</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="J456" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15724,19 +15920,11 @@
         <v>4416549.461598037</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J457" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15765,19 +15953,11 @@
         <v>4213329.099998036</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="J458" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15809,14 +15989,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15848,14 +16022,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15887,14 +16055,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15926,14 +16088,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15965,14 +16121,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16004,14 +16154,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16043,14 +16187,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16082,14 +16220,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16121,14 +16253,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16160,14 +16286,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16199,14 +16319,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16235,19 +16349,11 @@
         <v>3937863.264098037</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J470" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16276,19 +16382,11 @@
         <v>3987684.682998037</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J471" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16317,19 +16415,11 @@
         <v>3991010.813798036</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J472" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16358,19 +16448,11 @@
         <v>3991010.813798036</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J473" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16399,19 +16481,11 @@
         <v>3991035.813798036</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J474" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16440,19 +16514,11 @@
         <v>3991035.813798036</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J475" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16481,19 +16547,11 @@
         <v>4495688.647398036</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J476" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16522,19 +16580,11 @@
         <v>4238765.034998036</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="J477" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16563,19 +16613,11 @@
         <v>4305278.437998036</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J478" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16604,19 +16646,11 @@
         <v>4305278.437998036</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="J479" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16645,19 +16679,11 @@
         <v>4863096.637298036</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="J480" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16686,19 +16712,11 @@
         <v>5337464.866898037</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="J481" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16727,19 +16745,11 @@
         <v>5337464.866898037</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="J482" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +16781,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16810,14 +16814,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16846,19 +16844,13 @@
         <v>5263555.638698037</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
-        <v>1.002486631016043</v>
+        <v>1</v>
       </c>
       <c r="M485" t="inlineStr"/>
     </row>
@@ -17083,14 +17075,10 @@
         <v>4822196.088498037</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J492" t="n">
-        <v>9.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -17120,19 +17108,11 @@
         <v>4832708.510911831</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="J493" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17161,19 +17141,11 @@
         <v>4832622.510911831</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J494" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17202,19 +17174,11 @@
         <v>4723598.21501183</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J495" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17243,19 +17207,11 @@
         <v>4837827.03381183</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="J496" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17284,19 +17240,11 @@
         <v>4889460.06821183</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="J497" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17325,19 +17273,11 @@
         <v>4883261.97441183</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="J498" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17366,19 +17306,11 @@
         <v>4883272.97441183</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="J499" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17407,17 +17339,11 @@
         <v>4883272.97441183</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17446,19 +17372,11 @@
         <v>4805950.170011831</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="J501" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17487,19 +17405,11 @@
         <v>4805950.170011831</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J502" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17528,19 +17438,11 @@
         <v>4802552.087111831</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="J503" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17569,17 +17471,11 @@
         <v>4676273.140311831</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17608,19 +17504,11 @@
         <v>4636222.279311831</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J505" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17652,14 +17540,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17691,14 +17573,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17730,14 +17606,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17769,14 +17639,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17805,19 +17669,11 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J510" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17846,19 +17702,11 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J511" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17887,19 +17735,11 @@
         <v>4268582.769211831</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J512" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17928,19 +17768,11 @@
         <v>4252368.97441183</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J513" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17969,19 +17801,11 @@
         <v>4232643.85721183</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J514" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18010,19 +17834,11 @@
         <v>4309461.085011831</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J515" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18051,19 +17867,11 @@
         <v>4296560.58131183</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="J516" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18092,19 +17900,11 @@
         <v>4164261.95091183</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J517" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18133,19 +17933,11 @@
         <v>4209150.968811831</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J518" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18174,19 +17966,11 @@
         <v>4204366.43881183</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="J519" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18215,19 +17999,11 @@
         <v>3953149.93831183</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="J520" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18256,19 +18032,11 @@
         <v>3925340.60901183</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J521" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18297,19 +18065,11 @@
         <v>3990829.74771183</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J522" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18338,19 +18098,11 @@
         <v>4792158.02001183</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J523" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18379,19 +18131,11 @@
         <v>4791138.02001183</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="J524" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18420,19 +18164,11 @@
         <v>4586392.06071183</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J525" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18461,19 +18197,11 @@
         <v>4668199.96141183</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="J526" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18502,19 +18230,11 @@
         <v>4668189.96141183</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J527" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18543,19 +18263,11 @@
         <v>4673640.11521183</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="J528" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18587,14 +18299,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18626,14 +18332,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18665,14 +18365,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18704,14 +18398,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18743,14 +18431,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18782,14 +18464,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18818,19 +18494,11 @@
         <v>4683627.77011183</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J535" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18859,19 +18527,11 @@
         <v>4628250.56751183</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J536" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18900,19 +18560,11 @@
         <v>4603134.932211829</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J537" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18941,19 +18593,11 @@
         <v>4542628.177311829</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J538" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18982,19 +18626,11 @@
         <v>4542628.177311829</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J539" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19023,19 +18659,11 @@
         <v>4582409.01431183</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J540" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19064,19 +18692,11 @@
         <v>4582329.01431183</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J541" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19105,19 +18725,11 @@
         <v>4582168.688311829</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>9</v>
-      </c>
-      <c r="J542" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19146,19 +18758,11 @@
         <v>4594218.688311829</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J543" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19187,19 +18791,11 @@
         <v>4579127.163911829</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J544" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19228,19 +18824,11 @@
         <v>4608249.587411828</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="J545" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19269,19 +18857,11 @@
         <v>4608239.587411828</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J546" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19310,19 +18890,11 @@
         <v>4595983.148511828</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>9</v>
-      </c>
-      <c r="J547" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19351,19 +18923,11 @@
         <v>4587168.587411828</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J548" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19392,19 +18956,11 @@
         <v>4599466.235711828</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J549" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19433,19 +18989,11 @@
         <v>4629563.352611828</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J550" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19477,14 +19025,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19513,19 +19055,11 @@
         <v>4502851.131011827</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J552" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19554,19 +19088,11 @@
         <v>4500146.012111827</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J553" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19595,19 +19121,11 @@
         <v>4476479.199011827</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="J554" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19636,19 +19154,11 @@
         <v>4493970.854711827</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="J555" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19677,19 +19187,11 @@
         <v>4452806.817911827</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="J556" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19718,19 +19220,11 @@
         <v>4452806.817911827</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J557" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19759,19 +19253,11 @@
         <v>4034691.190311827</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J558" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19800,19 +19286,11 @@
         <v>3155139.856411827</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="J559" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19841,19 +19319,11 @@
         <v>3180395.309911827</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J560" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19882,19 +19352,11 @@
         <v>3180385.309911827</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J561" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19923,19 +19385,11 @@
         <v>3175909.491211826</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="J562" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19964,19 +19418,11 @@
         <v>3150643.745711826</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J563" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20005,19 +19451,11 @@
         <v>2844516.177911826</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="J564" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20049,14 +19487,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20085,19 +19517,11 @@
         <v>2975569.464511827</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J566" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20129,14 +19553,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20168,14 +19586,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20207,14 +19619,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20246,14 +19652,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20282,19 +19682,11 @@
         <v>3056406.993811827</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J571" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20323,19 +19715,11 @@
         <v>3050332.865211827</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J572" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20364,19 +19748,11 @@
         <v>3074780.667511827</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="J573" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20405,19 +19781,11 @@
         <v>3131311.216411827</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>9</v>
-      </c>
-      <c r="J574" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20446,19 +19814,11 @@
         <v>3096454.432711827</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J575" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20487,19 +19847,11 @@
         <v>3096454.432711827</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J576" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20528,19 +19880,11 @@
         <v>3096189.469511827</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J577" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20569,19 +19913,11 @@
         <v>3090301.136211826</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>9</v>
-      </c>
-      <c r="J578" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20610,19 +19946,11 @@
         <v>3090149.971111827</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J579" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20651,19 +19979,11 @@
         <v>3090083.971111827</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J580" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20692,19 +20012,11 @@
         <v>3092657.970411826</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J581" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20733,19 +20045,11 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J582" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20774,19 +20078,11 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J583" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20815,19 +20111,11 @@
         <v>3092384.969711826</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J584" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20856,19 +20144,11 @@
         <v>3092111.918311826</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J585" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20897,25 +20177,17 @@
         <v>3091941.918311826</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J586" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
       <c r="M586" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest ZIL.xlsx
+++ b/BackTest/2019-10-06 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1937699.702258845</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1898376.032158845</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>1995542.557758845</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.199999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>2136610.383858845</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>2155946.975158845</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,15 +616,11 @@
         <v>1803562.677058845</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,15 +649,11 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,17 +682,11 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,17 +781,11 @@
         <v>1707223.465658845</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -866,17 +814,11 @@
         <v>1662343.465658845</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,17 +847,11 @@
         <v>1674056.299658845</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -948,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1059,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1170,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1318,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,15 +1243,15 @@
         <v>1971305.444658846</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,13 +1280,17 @@
         <v>2204687.214658846</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1425,13 +1321,17 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1462,13 +1362,17 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1499,10 +1403,14 @@
         <v>2564726.269069755</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1536,10 +1444,14 @@
         <v>2557147.339769755</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1573,10 +1485,14 @@
         <v>3030555.928858846</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1610,10 +1526,14 @@
         <v>3678191.230191446</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1650,7 +1570,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1687,7 +1609,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1724,7 +1648,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,7 +1687,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,7 +1726,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,7 +1765,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1872,7 +1804,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1909,7 +1843,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1946,7 +1882,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1983,7 +1921,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,7 +1960,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2057,7 +1999,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,7 +2038,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,7 +2077,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,7 +2116,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,7 +2155,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,7 +2194,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,7 +2233,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,7 +2272,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,7 +2311,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,7 +2350,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2389,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,7 +2428,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,7 +2467,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,7 +2506,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,7 +2545,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,7 +2584,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,7 +2623,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,7 +2662,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,7 +2701,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,7 +2740,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,7 +2779,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,7 +2818,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2871,7 +2857,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,7 +2896,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,7 +2935,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,7 +2974,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +3013,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3052,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,7 +3091,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,7 +3130,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3169,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3208,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,7 +3247,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,7 +3286,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,7 +3325,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,7 +3364,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,7 +3403,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,7 +3442,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,7 +3481,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,7 +3520,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,7 +3559,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3598,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,7 +3637,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,7 +3715,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,7 +3793,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,7 +3871,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,7 +3910,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,7 +3949,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,7 +3988,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,7 +4027,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4055,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,7 +4261,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4240,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,7 +4339,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,7 +4378,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4388,7 +4456,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,7 +4495,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,7 +4534,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,7 +4573,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,16 +4609,20 @@
         <v>7894159.900386426</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9.279999999999999</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4568,11 +4648,17 @@
         <v>7897964.142286425</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4687,17 @@
         <v>7897964.142286425</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4637,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +4765,17 @@
         <v>8091920.036663995</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4703,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4843,17 @@
         <v>7972619.467163995</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4766,11 +4882,17 @@
         <v>7994571.125963995</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4921,17 @@
         <v>7952674.339154736</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4960,17 @@
         <v>8048141.928154736</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +4999,17 @@
         <v>8179766.584254736</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +5038,17 @@
         <v>8121902.508954736</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5077,17 @@
         <v>7799253.748654736</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4964,11 +5116,17 @@
         <v>7826091.654954736</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +5155,17 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5194,17 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5233,17 @@
         <v>7752727.074154736</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +5272,17 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5132,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5165,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5198,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5231,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5264,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5297,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5330,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5363,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5396,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5740,17 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5779,17 @@
         <v>8067691.214454735</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5818,17 @@
         <v>7872619.781554734</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5857,17 @@
         <v>7873521.264154734</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5896,17 @@
         <v>7866707.761454734</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5935,17 @@
         <v>7891408.523249972</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5974,17 @@
         <v>7890844.098549971</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +6013,17 @@
         <v>7951439.097549971</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5756,11 +6052,17 @@
         <v>7951439.097549971</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +6091,17 @@
         <v>8057178.240349971</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +6130,17 @@
         <v>8338468.007349971</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +6169,17 @@
         <v>8333089.866749971</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +6208,17 @@
         <v>8296532.520949971</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5924,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5990,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6056,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +6442,17 @@
         <v>8296542.520949971</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6122,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6155,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6188,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6598,17 @@
         <v>7923837.769749971</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6637,17 @@
         <v>7923837.769749971</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +6676,17 @@
         <v>7923937.769749971</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +6715,17 @@
         <v>7923947.769749971</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6754,17 @@
         <v>7923947.769749971</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +6793,17 @@
         <v>7904985.871649971</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +6832,17 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +6871,17 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6910,17 @@
         <v>7670133.124949971</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +6949,17 @@
         <v>7760259.309249971</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +6988,17 @@
         <v>7581569.396149971</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +7027,17 @@
         <v>7581591.396149971</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +7066,17 @@
         <v>7557486.206349971</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +7105,17 @@
         <v>7557486.206349971</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +7144,17 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +7183,17 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +7222,17 @@
         <v>7572598.265149971</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +7261,17 @@
         <v>7567598.265149971</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +7300,17 @@
         <v>7570441.34544997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +7339,17 @@
         <v>7750896.87774997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +7378,17 @@
         <v>7749220.72004997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7417,17 @@
         <v>7954185.64634997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +7456,17 @@
         <v>8054013.819349971</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6980,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7013,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7046,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7145,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7178,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7211,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7244,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7277,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7310,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7343,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7376,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7409,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7442,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +8080,17 @@
         <v>8113940.92259759</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7508,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +8158,17 @@
         <v>7733122.23099759</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +8197,17 @@
         <v>7675499.308097591</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +8236,17 @@
         <v>7762048.821489373</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +8275,17 @@
         <v>7722374.071889373</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7670,11 +8314,17 @@
         <v>7750978.587189374</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +8353,17 @@
         <v>7750768.920589373</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +8392,17 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +8431,17 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +8470,17 @@
         <v>7751065.918289374</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +8509,17 @@
         <v>7715107.832089374</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +8548,17 @@
         <v>7715107.832089374</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +8587,17 @@
         <v>8036926.859289374</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +8626,17 @@
         <v>8309348.559389374</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +8665,17 @@
         <v>8146554.847489374</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +8704,17 @@
         <v>8146554.847489374</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +8743,17 @@
         <v>8329387.559789374</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8069,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8102,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8135,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8168,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8201,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8300,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8333,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8399,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8432,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8498,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8564,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8597,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8627,11 +9445,17 @@
         <v>7943768.201889373</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +9484,17 @@
         <v>7922498.563589374</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8693,11 +9523,17 @@
         <v>7528334.750189373</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +9562,17 @@
         <v>7334967.608789373</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8759,11 +9601,17 @@
         <v>6668051.560789373</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +9640,17 @@
         <v>6401939.841089373</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +9679,17 @@
         <v>6133722.501289372</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +9718,17 @@
         <v>6133722.501289372</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8891,11 +9757,17 @@
         <v>6133712.501289372</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +9796,17 @@
         <v>6133712.501289372</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +9835,17 @@
         <v>6176432.264389372</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +9874,17 @@
         <v>6208183.261989373</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +9913,17 @@
         <v>6309869.212889372</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +9952,17 @@
         <v>6307854.206889372</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +9991,17 @@
         <v>6274641.828489373</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9122,11 +10030,17 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +10069,17 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +10108,17 @@
         <v>6558837.964589372</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9224,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9257,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +10225,17 @@
         <v>6747573.872189372</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9320,11 +10264,17 @@
         <v>6693323.137589372</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +10303,17 @@
         <v>6693334.137589372</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +10342,17 @@
         <v>6703779.872789372</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +10381,17 @@
         <v>6703779.872789372</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +10420,17 @@
         <v>6601347.281989371</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9488,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +10498,17 @@
         <v>6495553.882889371</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9554,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9653,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9686,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9719,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9752,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9785,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9818,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9851,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9884,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9917,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9950,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9983,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10016,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10049,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10148,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10181,8 +11281,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10214,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10247,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10280,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10313,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10346,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10412,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10445,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10478,8 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10511,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10577,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10610,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10643,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10676,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10709,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10742,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10775,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10808,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10841,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10874,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10907,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10940,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10973,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11006,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11039,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11072,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11105,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11138,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11171,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11204,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11270,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11303,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11336,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11369,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11402,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11435,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11468,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11501,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11534,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11567,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11600,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11633,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11666,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11699,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11732,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11765,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11798,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11831,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11864,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11897,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11930,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11963,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11996,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12029,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12062,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12095,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12128,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12161,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12194,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12227,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12260,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12293,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12326,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12359,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12425,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12458,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12491,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12524,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12557,8 +14089,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12590,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12623,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12656,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12689,8 +14245,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12722,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12755,8 +14323,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12788,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12821,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12854,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12887,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12920,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12953,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12986,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13019,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13052,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13085,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13118,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13151,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13184,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13217,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13250,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13283,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13316,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13349,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13382,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13415,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13448,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13481,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13514,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13547,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13580,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13613,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13646,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13679,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13712,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13745,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13778,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13811,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13844,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13877,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13910,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13943,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13976,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14009,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14042,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14075,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14108,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14141,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14174,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14207,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14240,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14273,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14306,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14339,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14372,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14405,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14438,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14471,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14504,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14537,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14570,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14603,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14636,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14669,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14702,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14735,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14768,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14801,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14834,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14867,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14900,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14933,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14966,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14999,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15032,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15065,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15098,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15131,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15164,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15197,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15230,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15263,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15296,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15329,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15362,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15395,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15428,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15461,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15494,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15527,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15560,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15593,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15626,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15659,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15692,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15725,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15758,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15791,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15824,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15857,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15890,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15923,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15956,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15989,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16022,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16055,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16088,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16121,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16154,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16187,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16220,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16253,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16286,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16319,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16352,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16385,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16418,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16451,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16484,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16517,8 +18769,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16550,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16583,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16616,8 +18886,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16649,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16682,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16715,8 +19003,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16748,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16781,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16814,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16847,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16880,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16913,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16946,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16979,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17012,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17045,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17078,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17111,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17144,8 +19510,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17177,8 +19549,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17210,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17243,8 +19627,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17276,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17309,8 +19705,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17342,8 +19744,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17375,8 +19783,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17408,8 +19822,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17441,8 +19861,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17474,8 +19900,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17507,8 +19939,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17540,8 +19978,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17573,8 +20017,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17606,8 +20056,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17639,8 +20095,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17672,8 +20134,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17705,8 +20173,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17738,8 +20212,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17771,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17804,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17837,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17870,8 +20368,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17903,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17936,8 +20446,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17969,8 +20485,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18002,8 +20524,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18035,8 +20563,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18068,8 +20602,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18101,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18134,8 +20680,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18167,8 +20719,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18200,8 +20758,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18233,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18266,8 +20836,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18299,8 +20875,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18332,8 +20914,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +20953,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18398,8 +20992,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18431,8 +21031,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18464,8 +21070,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18497,8 +21109,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18530,8 +21148,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18563,8 +21187,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18596,8 +21226,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18629,8 +21265,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18662,8 +21304,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18695,8 +21343,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18728,8 +21382,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18761,8 +21421,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18794,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18827,8 +21499,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18860,8 +21538,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18893,8 +21577,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18926,8 +21616,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18959,8 +21655,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18992,8 +21694,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19025,8 +21733,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19058,8 +21772,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19091,8 +21811,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19124,8 +21850,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19157,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19190,8 +21928,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19223,8 +21967,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19256,8 +22006,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19289,8 +22045,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +22084,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +22123,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19388,8 +22162,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +22201,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +22240,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19487,8 +22279,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +22318,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19553,8 +22357,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19586,8 +22396,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19619,8 +22435,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19652,8 +22474,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +22513,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19718,8 +22552,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19751,8 +22591,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19784,8 +22630,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +22669,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +22708,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +22747,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +22786,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +22825,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +22864,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +22903,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +22942,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20081,8 +22981,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20114,8 +23020,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20147,8 +23059,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20180,14 +23098,20 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
       <c r="M586" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest ZIL.xlsx
+++ b/BackTest/2019-10-06 BackTest ZIL.xlsx
@@ -451,7 +451,7 @@
         <v>1937699.702258845</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1898376.032158845</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1995542.557758845</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>2136610.383858845</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>2155946.975158845</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.48</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1803562.677058845</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.49</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.33</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>1592218.897458845</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>1606579.728558845</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>1609189.151958845</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.32</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>1707223.465658845</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.34</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +915,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +952,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +989,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1026,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1063,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1100,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1137,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1174,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1211,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1248,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1285,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1322,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,15 +1355,15 @@
         <v>1971305.444658846</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,17 +1392,13 @@
         <v>2204687.214658846</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1321,17 +1429,13 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1362,17 +1466,13 @@
         <v>2167649.487658846</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1403,14 +1503,10 @@
         <v>2564726.269069755</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,14 +1540,10 @@
         <v>2557147.339769755</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1485,14 +1577,10 @@
         <v>3030555.928858846</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,14 +1614,10 @@
         <v>3678191.230191446</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,9 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1609,9 +1691,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1648,9 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1687,9 +1765,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1726,9 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1765,9 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,9 +1876,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1843,9 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,9 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1921,9 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,9 +2024,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,9 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,9 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2077,9 +2135,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,9 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,9 +2209,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2194,9 +2246,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2233,9 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2272,9 +2320,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,9 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,9 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,9 +2431,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,9 +2468,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2467,9 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2506,9 +2542,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,9 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,9 +2616,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,9 +2653,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,9 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2701,9 +2727,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,9 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,9 +2801,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,9 +2838,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,9 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,9 +2912,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2935,9 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,9 +2986,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,9 +3023,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,9 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,9 +3097,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,9 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,9 +3171,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,9 +3208,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3247,9 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,9 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,9 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,9 +3356,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3403,9 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3442,9 +3430,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3481,9 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3520,9 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3559,9 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,9 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3637,9 +3615,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,9 +3652,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3715,9 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,9 +3726,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,9 +3763,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3832,9 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,9 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,9 +3874,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3949,9 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3988,9 +3948,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,9 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,20 +4019,16 @@
         <v>6730240.378857784</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4105,14 +4057,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4141,17 +4087,11 @@
         <v>6942580.502875541</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4180,17 +4120,11 @@
         <v>8643873.196053723</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4219,17 +4153,11 @@
         <v>8231794.423053723</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4258,17 +4186,11 @@
         <v>7813569.395799669</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4297,17 +4219,11 @@
         <v>7694948.176678948</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4336,17 +4252,11 @@
         <v>7998765.540378948</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4375,17 +4285,11 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4414,17 +4318,11 @@
         <v>8085817.192078948</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,17 +4351,11 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4492,17 +4384,11 @@
         <v>7867622.032278948</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4420,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4453,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4486,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4519,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4726,17 +4582,11 @@
         <v>7808747.961986425</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4765,17 +4615,11 @@
         <v>8091920.036663995</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4651,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4684,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4882,17 +4714,11 @@
         <v>7994571.125963995</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4750,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4960,17 +4780,11 @@
         <v>8048141.928154736</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4999,17 +4813,11 @@
         <v>8179766.584254736</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5038,17 +4846,11 @@
         <v>8121902.508954736</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5077,17 +4879,11 @@
         <v>7799253.748654736</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5116,17 +4912,11 @@
         <v>7826091.654954736</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5155,17 +4945,11 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5194,17 +4978,11 @@
         <v>7959382.484054736</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5233,17 +5011,11 @@
         <v>7752727.074154736</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5272,17 +5044,11 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5311,17 +5077,11 @@
         <v>8000783.975554735</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5350,17 +5110,11 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5389,17 +5143,11 @@
         <v>8061889.568854735</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5428,17 +5176,11 @@
         <v>8074540.368854735</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5467,17 +5209,11 @@
         <v>8064273.732954735</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5506,17 +5242,11 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5545,17 +5275,11 @@
         <v>8036489.926654735</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5584,17 +5308,11 @@
         <v>7790670.003054734</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +5344,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5665,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5476,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5509,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +5575,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5608,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5977,14 +5641,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5674,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +5740,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6133,14 +5773,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6172,14 +5806,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +5839,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5872,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5905,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6328,14 +5938,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5971,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +6004,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +6037,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6484,14 +6070,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +6103,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6562,14 +6136,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6601,14 +6169,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6640,14 +6202,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6679,14 +6235,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6718,14 +6268,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6757,14 +6301,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6796,14 +6334,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6835,14 +6367,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6874,14 +6400,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +6433,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6952,14 +6466,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +6499,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6532,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +6565,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6598,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +6631,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7186,14 +6664,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +6697,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +6730,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6763,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +6796,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +6829,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7459,14 +6895,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +6928,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7537,14 +6961,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7576,14 +6994,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7615,14 +7027,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7654,14 +7060,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7693,14 +7093,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7732,14 +7126,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7771,14 +7159,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7810,14 +7192,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7849,14 +7225,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7888,14 +7258,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7927,14 +7291,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7966,14 +7324,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8005,14 +7357,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8044,14 +7390,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8083,14 +7423,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8122,14 +7456,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8161,14 +7489,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8200,14 +7522,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8239,14 +7555,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8278,14 +7588,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8317,14 +7621,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8356,14 +7654,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8395,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8434,14 +7720,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8473,14 +7753,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8512,14 +7786,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8551,14 +7819,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8590,14 +7852,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8629,14 +7885,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8668,14 +7918,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8707,14 +7951,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8746,14 +7984,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8824,14 +8050,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8863,14 +8083,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8902,14 +8116,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8941,14 +8149,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8980,14 +8182,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9019,14 +8215,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9058,14 +8248,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9097,14 +8281,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9136,14 +8314,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9175,14 +8347,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9214,14 +8380,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9253,14 +8413,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9292,14 +8446,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9331,14 +8479,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9370,14 +8512,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9409,14 +8545,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9448,14 +8578,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9487,14 +8611,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9526,14 +8644,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9565,14 +8677,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9604,14 +8710,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9643,14 +8743,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9682,14 +8776,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9721,14 +8809,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9760,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9799,14 +8875,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9838,14 +8908,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9877,14 +8941,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9916,14 +8974,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9955,14 +9007,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9994,14 +9040,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10033,14 +9073,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10072,14 +9106,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10111,14 +9139,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10150,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10189,14 +9205,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10228,14 +9238,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10267,14 +9271,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10306,14 +9304,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10345,14 +9337,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10384,14 +9370,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10423,14 +9403,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10462,14 +9436,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10501,14 +9469,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10540,14 +9502,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10579,14 +9535,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10618,14 +9568,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10657,14 +9601,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10696,14 +9634,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10735,14 +9667,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10774,14 +9700,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10813,14 +9733,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10852,14 +9766,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10891,14 +9799,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10930,14 +9832,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10969,14 +9865,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11008,14 +9898,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11047,14 +9931,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11086,14 +9964,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11125,14 +9997,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11164,14 +10030,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11203,14 +10063,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11242,14 +10096,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11281,14 +10129,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11320,14 +10162,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11359,14 +10195,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11398,14 +10228,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11437,14 +10261,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11476,14 +10294,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11515,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11554,14 +10360,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11593,14 +10393,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11632,14 +10426,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11671,14 +10459,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11710,14 +10492,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11749,14 +10525,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11788,14 +10558,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11827,14 +10591,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11866,14 +10624,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11905,14 +10657,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11944,14 +10690,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11983,14 +10723,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12022,14 +10756,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12061,14 +10789,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12100,14 +10822,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12139,14 +10855,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12178,14 +10888,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12217,14 +10921,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12256,14 +10954,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12295,14 +10987,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12334,14 +11020,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12373,14 +11053,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12412,14 +11086,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12451,14 +11119,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12490,14 +11152,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12529,14 +11185,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12568,14 +11218,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12607,14 +11251,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12646,14 +11284,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12685,14 +11317,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12724,14 +11350,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12763,14 +11383,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12802,14 +11416,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12841,14 +11449,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12880,14 +11482,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12919,14 +11515,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12958,14 +11548,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12997,14 +11581,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13036,14 +11614,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13075,14 +11647,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13114,14 +11680,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13153,14 +11713,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13192,14 +11746,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13231,14 +11779,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13270,14 +11812,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13309,14 +11845,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13348,14 +11878,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13387,14 +11911,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13426,14 +11944,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13465,14 +11977,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13504,14 +12010,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13543,14 +12043,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13582,14 +12076,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13621,14 +12109,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13660,14 +12142,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13699,14 +12175,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13738,14 +12208,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13777,14 +12241,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13816,14 +12274,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13855,14 +12307,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13894,14 +12340,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13933,14 +12373,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13972,14 +12406,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14011,14 +12439,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14050,14 +12472,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14089,14 +12505,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14128,14 +12538,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14167,14 +12571,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14206,14 +12604,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14245,14 +12637,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14284,14 +12670,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14323,14 +12703,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14362,14 +12736,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14401,14 +12769,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14440,14 +12802,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14479,14 +12835,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14518,14 +12868,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14557,14 +12901,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14596,14 +12934,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14635,14 +12967,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14674,14 +13000,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14713,14 +13033,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14752,14 +13066,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14791,14 +13099,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14830,14 +13132,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14869,14 +13165,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14908,14 +13198,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14947,14 +13231,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14986,14 +13264,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15025,14 +13297,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15064,14 +13330,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15103,14 +13363,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15142,14 +13396,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15181,14 +13429,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15220,14 +13462,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15259,14 +13495,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15298,14 +13528,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15337,14 +13561,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15376,14 +13594,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15415,14 +13627,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15454,14 +13660,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15493,14 +13693,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15532,14 +13726,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15571,14 +13759,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15610,14 +13792,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15649,14 +13825,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15688,14 +13858,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15727,14 +13891,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15766,14 +13924,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15805,14 +13957,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15844,14 +13990,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15883,14 +14023,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15922,14 +14056,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15961,14 +14089,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16000,14 +14122,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16039,14 +14155,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16078,14 +14188,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16117,14 +14221,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16156,14 +14254,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16195,14 +14287,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16234,14 +14320,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16273,14 +14353,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16312,14 +14386,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16351,14 +14419,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16390,14 +14452,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16429,14 +14485,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16468,14 +14518,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16507,14 +14551,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16546,14 +14584,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16585,14 +14617,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16624,14 +14650,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16663,14 +14683,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16702,14 +14716,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16741,14 +14749,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16780,14 +14782,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16819,14 +14815,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16858,14 +14848,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16897,14 +14881,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16936,14 +14914,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16975,14 +14947,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17014,14 +14980,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17053,14 +15013,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17092,14 +15046,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17131,14 +15079,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17170,14 +15112,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17209,14 +15145,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17248,14 +15178,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17287,14 +15211,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17326,14 +15244,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17365,14 +15277,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17404,14 +15310,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17443,14 +15343,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17482,14 +15376,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17521,14 +15409,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17560,14 +15442,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17599,14 +15475,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17638,14 +15508,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17677,14 +15541,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17716,14 +15574,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17755,14 +15607,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17794,14 +15640,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17833,14 +15673,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17872,14 +15706,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17911,14 +15739,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17950,14 +15772,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17989,14 +15805,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18028,14 +15838,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18067,14 +15871,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18106,14 +15904,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18145,14 +15937,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18184,14 +15970,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18223,14 +16003,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18262,14 +16036,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18301,14 +16069,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18340,14 +16102,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18379,14 +16135,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18418,14 +16168,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18457,14 +16201,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18496,14 +16234,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18535,14 +16267,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18574,14 +16300,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18613,14 +16333,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18652,14 +16366,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18691,14 +16399,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18730,14 +16432,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18769,14 +16465,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18808,14 +16498,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18847,14 +16531,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18886,14 +16564,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18925,14 +16597,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18964,14 +16630,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19003,14 +16663,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19042,14 +16696,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19081,14 +16729,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19120,14 +16762,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19159,14 +16795,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19198,14 +16828,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19237,14 +16861,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19276,14 +16894,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19315,14 +16927,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19354,14 +16960,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19393,14 +16993,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19432,14 +17026,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19471,14 +17059,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19510,14 +17092,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19549,14 +17125,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19588,14 +17158,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19627,14 +17191,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19666,14 +17224,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19705,14 +17257,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19744,14 +17290,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19783,14 +17323,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19822,14 +17356,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19861,14 +17389,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19900,14 +17422,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19939,14 +17455,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19978,14 +17488,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20017,14 +17521,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20056,14 +17554,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20095,14 +17587,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20134,14 +17620,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20173,14 +17653,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20212,14 +17686,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20251,14 +17719,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20290,14 +17752,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20329,14 +17785,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20368,14 +17818,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20407,14 +17851,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20446,14 +17884,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20485,14 +17917,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20524,14 +17950,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20563,14 +17983,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20602,14 +18016,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20641,14 +18049,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20680,14 +18082,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20719,14 +18115,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20758,14 +18148,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20797,14 +18181,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20836,14 +18214,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20875,14 +18247,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20914,14 +18280,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20953,14 +18313,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20992,14 +18346,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21031,14 +18379,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21070,14 +18412,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21109,14 +18445,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21148,14 +18478,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21187,14 +18511,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21226,14 +18544,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21265,14 +18577,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21304,14 +18610,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21343,14 +18643,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21382,14 +18676,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21421,14 +18709,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21460,14 +18742,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21499,14 +18775,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21538,14 +18808,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21577,14 +18841,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21616,14 +18874,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21655,14 +18907,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21694,14 +18940,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21733,14 +18973,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21772,14 +19006,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21811,14 +19039,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21850,14 +19072,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21889,14 +19105,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21928,14 +19138,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21967,14 +19171,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22006,14 +19204,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22045,14 +19237,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22084,14 +19270,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22123,14 +19303,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22162,14 +19336,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22201,14 +19369,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22240,14 +19402,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22279,14 +19435,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22318,14 +19468,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22357,14 +19501,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22396,14 +19534,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22435,14 +19567,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22474,14 +19600,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22513,14 +19633,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22552,14 +19666,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22591,14 +19699,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22630,14 +19732,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22669,14 +19765,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22708,14 +19798,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22747,14 +19831,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22786,14 +19864,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22825,14 +19897,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22864,14 +19930,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22903,14 +19963,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22942,14 +19996,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22981,14 +20029,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23020,14 +20062,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23059,14 +20095,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23098,14 +20128,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
